--- a/[3] Test Input/RESULTS_MERGED_DATE.xlsx
+++ b/[3] Test Input/RESULTS_MERGED_DATE.xlsx
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.56666666666667</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>30.4</v>
+        <v>26.93333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>18.83333333333333</v>
+        <v>24.93333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>72.01666666666667</v>
+        <v>31.18333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>72.31933333333332</v>
+        <v>30.38473692393991</v>
       </c>
       <c r="I2" t="n">
-        <v>65.485</v>
+        <v>28.51360951273955</v>
       </c>
       <c r="J2" t="n">
-        <v>28.86616666666667</v>
+        <v>9.979000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>167.1315</v>
+        <v>22.78366666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>8111.620833333333</v>
+        <v>1218.541666666667</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.63333333333333</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>31.36666666666666</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>20.73333333333333</v>
+        <v>26.26666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>79.75</v>
+        <v>32.85</v>
       </c>
       <c r="H3" t="n">
-        <v>79.84733333333334</v>
+        <v>32.18698547662544</v>
       </c>
       <c r="I3" t="n">
-        <v>71.31416666666667</v>
+        <v>30.40236517399127</v>
       </c>
       <c r="J3" t="n">
-        <v>33.1275</v>
+        <v>10.74916666666667</v>
       </c>
       <c r="K3" t="n">
-        <v>161.7388333333333</v>
+        <v>27.3455</v>
       </c>
       <c r="L3" t="n">
-        <v>9261.135833333334</v>
+        <v>1315.69</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>18.8</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>81.26666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>81.69333333333333</v>
+        <v>32.03999476587148</v>
       </c>
       <c r="I4" t="n">
-        <v>73.51133333333333</v>
+        <v>29.60943792949716</v>
       </c>
       <c r="J4" t="n">
-        <v>33.306</v>
+        <v>10.94666666666667</v>
       </c>
       <c r="K4" t="n">
-        <v>177.5133333333333</v>
+        <v>26.254</v>
       </c>
       <c r="L4" t="n">
-        <v>9596.530000000001</v>
+        <v>1233.417333333333</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>30.13333333333334</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>18.93333333333333</v>
+        <v>27.46666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>80.5</v>
+        <v>33.46666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>80.71300000000001</v>
+        <v>32.4307029330715</v>
       </c>
       <c r="I5" t="n">
-        <v>72.27549999999999</v>
+        <v>29.81742175491021</v>
       </c>
       <c r="J5" t="n">
-        <v>33.0435</v>
+        <v>10.99533333333333</v>
       </c>
       <c r="K5" t="n">
-        <v>162.7735</v>
+        <v>28.0975</v>
       </c>
       <c r="L5" t="n">
-        <v>9212.772500000001</v>
+        <v>1246.010666666667</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.6</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>30.13333333333334</v>
+        <v>30.53333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>18.53333333333333</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>79.86666666666666</v>
+        <v>32.73333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>80.14866666666666</v>
+        <v>32.57028225084435</v>
       </c>
       <c r="I6" t="n">
-        <v>72.81733333333331</v>
+        <v>30.15209737976659</v>
       </c>
       <c r="J6" t="n">
-        <v>32.58000000000001</v>
+        <v>10.34533333333333</v>
       </c>
       <c r="K6" t="n">
-        <v>164.188</v>
+        <v>22.80333333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>9241.831333333334</v>
+        <v>1119.82</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.36666666666667</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>29.73333333333333</v>
+        <v>25.2</v>
       </c>
       <c r="F7" t="n">
-        <v>18.36666666666667</v>
+        <v>23.2</v>
       </c>
       <c r="G7" t="n">
-        <v>75.46666666666667</v>
+        <v>31.98333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>75.87349999999999</v>
+        <v>30.74579525315714</v>
       </c>
       <c r="I7" t="n">
-        <v>68.69866666666667</v>
+        <v>29.16186550526895</v>
       </c>
       <c r="J7" t="n">
-        <v>31.24516666666667</v>
+        <v>10.53666666666667</v>
       </c>
       <c r="K7" t="n">
-        <v>169.2303333333333</v>
+        <v>29.65016666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>9297.389000000001</v>
+        <v>1295.411666666667</v>
       </c>
     </row>
     <row r="8">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.46666666666667</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>30.26666666666667</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>18.8</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>64.60000000000001</v>
+        <v>26.86666666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>65.03533333333333</v>
+        <v>26.050369330727</v>
       </c>
       <c r="I8" t="n">
-        <v>58.12799999999999</v>
+        <v>23.47647984321411</v>
       </c>
       <c r="J8" t="n">
-        <v>25.67533333333333</v>
+        <v>8.471333333333334</v>
       </c>
       <c r="K8" t="n">
-        <v>169.5053333333333</v>
+        <v>18.61733333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>7373.910666666667</v>
+        <v>901.6393333333332</v>
       </c>
     </row>
     <row r="9">
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.06666666666667</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>32.26666666666667</v>
+        <v>32.16666666666666</v>
       </c>
       <c r="F9" t="n">
-        <v>21.2</v>
+        <v>30.16666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>52.93333333333334</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>53.02933333333333</v>
+        <v>23.13080513976111</v>
       </c>
       <c r="I9" t="n">
-        <v>46.50266666666666</v>
+        <v>22.01720956758423</v>
       </c>
       <c r="J9" t="n">
-        <v>21.02266666666667</v>
+        <v>7.192333333333333</v>
       </c>
       <c r="K9" t="n">
-        <v>219.4486666666667</v>
+        <v>16.016</v>
       </c>
       <c r="L9" t="n">
-        <v>6408.418000000001</v>
+        <v>879.5341666666667</v>
       </c>
     </row>
     <row r="10">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>30.26666666666667</v>
+        <v>29.6</v>
       </c>
       <c r="F10" t="n">
-        <v>18.13333333333334</v>
+        <v>27.6</v>
       </c>
       <c r="G10" t="n">
-        <v>56.26666666666666</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>56.69666666666667</v>
+        <v>23.77836461955152</v>
       </c>
       <c r="I10" t="n">
-        <v>51.17599999999999</v>
+        <v>22.05022289311534</v>
       </c>
       <c r="J10" t="n">
-        <v>22.646</v>
+        <v>7.442</v>
       </c>
       <c r="K10" t="n">
-        <v>176.0066666666667</v>
+        <v>20.17666666666667</v>
       </c>
       <c r="L10" t="n">
-        <v>6578.642</v>
+        <v>909.1833333333333</v>
       </c>
     </row>
     <row r="11">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.53333333333333</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>30.13333333333334</v>
+        <v>30.63333333333334</v>
       </c>
       <c r="F11" t="n">
-        <v>19.6</v>
+        <v>28.63333333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>58.91666666666666</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>59.263</v>
+        <v>25.17330777581476</v>
       </c>
       <c r="I11" t="n">
-        <v>52.4615</v>
+        <v>23.96515424182688</v>
       </c>
       <c r="J11" t="n">
-        <v>23.33233333333333</v>
+        <v>7.735166666666667</v>
       </c>
       <c r="K11" t="n">
-        <v>182.7893333333334</v>
+        <v>18.7295</v>
       </c>
       <c r="L11" t="n">
-        <v>6779.659</v>
+        <v>885.2536666666665</v>
       </c>
     </row>
     <row r="12">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11.03333333333333</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>30.66666666666667</v>
+        <v>29.93333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>19.63333333333333</v>
+        <v>27.8</v>
       </c>
       <c r="G12" t="n">
-        <v>57.38333333333333</v>
+        <v>25.03333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>57.61216666666667</v>
+        <v>24.47745937842937</v>
       </c>
       <c r="I12" t="n">
-        <v>52.63899999999999</v>
+        <v>22.98421370507405</v>
       </c>
       <c r="J12" t="n">
-        <v>22.48583333333333</v>
+        <v>7.738166666666667</v>
       </c>
       <c r="K12" t="n">
-        <v>157.2773333333333</v>
+        <v>21.21483333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>6322.440333333333</v>
+        <v>947.098</v>
       </c>
     </row>
     <row r="13">
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>31.2</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>18.93333333333333</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>58.86666666666667</v>
+        <v>25.4</v>
       </c>
       <c r="H13" t="n">
-        <v>59.37933333333334</v>
+        <v>24.97155905641533</v>
       </c>
       <c r="I13" t="n">
-        <v>52.62866666666667</v>
+        <v>22.80831821460052</v>
       </c>
       <c r="J13" t="n">
-        <v>23.56733333333333</v>
+        <v>8.011333333333333</v>
       </c>
       <c r="K13" t="n">
-        <v>168.4066666666666</v>
+        <v>19.10333333333334</v>
       </c>
       <c r="L13" t="n">
-        <v>6673.869333333333</v>
+        <v>913.6273333333334</v>
       </c>
     </row>
     <row r="14">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F14" t="n">
         <v>30</v>
       </c>
-      <c r="F14" t="n">
-        <v>18</v>
-      </c>
       <c r="G14" t="n">
-        <v>69.45</v>
+        <v>29.21666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>69.93599999999999</v>
+        <v>28.41784236690033</v>
       </c>
       <c r="I14" t="n">
-        <v>59.4415</v>
+        <v>24.94757445555236</v>
       </c>
       <c r="J14" t="n">
-        <v>28.69316666666667</v>
+        <v>9.283333333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>171.9538333333333</v>
+        <v>21.27966666666667</v>
       </c>
       <c r="L14" t="n">
-        <v>8513.187333333333</v>
+        <v>969.1013333333334</v>
       </c>
     </row>
     <row r="15">
@@ -1084,31 +1084,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.73333333333333</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>30.6</v>
+        <v>30.13333333333334</v>
       </c>
       <c r="F15" t="n">
-        <v>18.86666666666667</v>
+        <v>28.13333333333334</v>
       </c>
       <c r="G15" t="n">
-        <v>74.06666666666666</v>
+        <v>31.91666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>74.38983333333333</v>
+        <v>30.90607368055965</v>
       </c>
       <c r="I15" t="n">
-        <v>67.166</v>
+        <v>28.98692710339716</v>
       </c>
       <c r="J15" t="n">
-        <v>30.2525</v>
+        <v>10.00116666666667</v>
       </c>
       <c r="K15" t="n">
-        <v>168.8858333333334</v>
+        <v>22.53683333333333</v>
       </c>
       <c r="L15" t="n">
-        <v>8934.2425</v>
+        <v>1152.021166666667</v>
       </c>
     </row>
     <row r="16">
@@ -1128,31 +1128,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12.46666666666667</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>29.2</v>
+        <v>30.1</v>
       </c>
       <c r="F16" t="n">
-        <v>16.73333333333333</v>
+        <v>28.1</v>
       </c>
       <c r="G16" t="n">
-        <v>56.2</v>
+        <v>24.98333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>56.50583333333333</v>
+        <v>24.62253374168371</v>
       </c>
       <c r="I16" t="n">
-        <v>50.046</v>
+        <v>22.64791534827422</v>
       </c>
       <c r="J16" t="n">
-        <v>22.60316666666667</v>
+        <v>7.879</v>
       </c>
       <c r="K16" t="n">
-        <v>184.7423333333333</v>
+        <v>23.8555</v>
       </c>
       <c r="L16" t="n">
-        <v>6663.064333333333</v>
+        <v>1012.2305</v>
       </c>
     </row>
     <row r="17">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.76666666666667</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>30.7</v>
+        <v>31.06666666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>18.93333333333333</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>57.26666666666667</v>
+        <v>26.4</v>
       </c>
       <c r="H17" t="n">
-        <v>57.39116666666666</v>
+        <v>25.91287969036331</v>
       </c>
       <c r="I17" t="n">
-        <v>50.45666666666667</v>
+        <v>24.00365140276805</v>
       </c>
       <c r="J17" t="n">
-        <v>22.84183333333333</v>
+        <v>8.07</v>
       </c>
       <c r="K17" t="n">
-        <v>163.2651666666667</v>
+        <v>20.28466666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>6965.030833333333</v>
+        <v>934.4475555555556</v>
       </c>
     </row>
     <row r="18">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>31.86666666666666</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>29.86666666666666</v>
       </c>
       <c r="G18" t="n">
-        <v>56.66666666666666</v>
+        <v>23.68333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>56.94833333333333</v>
+        <v>23.65131213526695</v>
       </c>
       <c r="I18" t="n">
-        <v>50.54916666666667</v>
+        <v>22.7150026184309</v>
       </c>
       <c r="J18" t="n">
-        <v>22.40566666666667</v>
+        <v>6.962666666666667</v>
       </c>
       <c r="K18" t="n">
-        <v>179.1865</v>
+        <v>13.78</v>
       </c>
       <c r="L18" t="n">
-        <v>6654.480333333333</v>
+        <v>707.6145</v>
       </c>
     </row>
     <row r="19">
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9.333333333333334</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>30.26666666666667</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>20.93333333333333</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>100.2666666666667</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>100.54</v>
+        <v>40.87845291321089</v>
       </c>
       <c r="I19" t="n">
-        <v>89.63200000000001</v>
+        <v>39.58613619825278</v>
       </c>
       <c r="J19" t="n">
-        <v>40.788</v>
+        <v>13.40466666666667</v>
       </c>
       <c r="K19" t="n">
-        <v>141.2246666666666</v>
+        <v>27.402</v>
       </c>
       <c r="L19" t="n">
-        <v>10966.63866666667</v>
+        <v>1477.728666666667</v>
       </c>
     </row>
     <row r="20">
@@ -1304,31 +1304,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>30.3</v>
+        <v>26.2</v>
       </c>
       <c r="F20" t="n">
-        <v>20.16666666666667</v>
+        <v>24.2</v>
       </c>
       <c r="G20" t="n">
-        <v>102.75</v>
+        <v>41.36666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>103.137</v>
+        <v>40.65442317821228</v>
       </c>
       <c r="I20" t="n">
-        <v>96.50416666666666</v>
+        <v>38.78484664779197</v>
       </c>
       <c r="J20" t="n">
-        <v>43.58350000000001</v>
+        <v>13.76783333333333</v>
       </c>
       <c r="K20" t="n">
-        <v>162.6128333333333</v>
+        <v>31.84833333333333</v>
       </c>
       <c r="L20" t="n">
-        <v>12258.31433333333</v>
+        <v>1655.175</v>
       </c>
     </row>
     <row r="21">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9.799999999999999</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>30.03333333333333</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>20.23333333333333</v>
+        <v>26.26666666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>100.35</v>
+        <v>41.63333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>100.7018333333333</v>
+        <v>40.69083490644319</v>
       </c>
       <c r="I21" t="n">
-        <v>88.4055</v>
+        <v>38.21043824359887</v>
       </c>
       <c r="J21" t="n">
-        <v>42.64016666666667</v>
+        <v>13.89583333333333</v>
       </c>
       <c r="K21" t="n">
-        <v>168.0705</v>
+        <v>28.35433333333333</v>
       </c>
       <c r="L21" t="n">
-        <v>12317.11933333333</v>
+        <v>1584.3575</v>
       </c>
     </row>
     <row r="22">
@@ -1392,31 +1392,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10.53333333333333</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>31.6</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="F22" t="n">
-        <v>21.06666666666667</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G22" t="n">
-        <v>116.6</v>
+        <v>47.53333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>116.926</v>
+        <v>46.65033016829068</v>
       </c>
       <c r="I22" t="n">
-        <v>103.3126666666667</v>
+        <v>45.4691246897948</v>
       </c>
       <c r="J22" t="n">
-        <v>49.06933333333333</v>
+        <v>15.73933333333333</v>
       </c>
       <c r="K22" t="n">
-        <v>156.8273333333334</v>
+        <v>30.33866666666666</v>
       </c>
       <c r="L22" t="n">
-        <v>13783.62466666666</v>
+        <v>1901.901333333333</v>
       </c>
     </row>
     <row r="23">
@@ -1436,31 +1436,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>33.2</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>23.06666666666667</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>104.6</v>
+        <v>41.93333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>103.8933333333333</v>
+        <v>41.47726651542062</v>
       </c>
       <c r="I23" t="n">
-        <v>92.51400000000001</v>
+        <v>39.89162267020546</v>
       </c>
       <c r="J23" t="n">
-        <v>45.454</v>
+        <v>14.38</v>
       </c>
       <c r="K23" t="n">
-        <v>167.894</v>
+        <v>31.94933333333333</v>
       </c>
       <c r="L23" t="n">
-        <v>12932.40866666667</v>
+        <v>1806.83</v>
       </c>
     </row>
     <row r="24">
@@ -1480,31 +1480,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>30.93333333333333</v>
+        <v>30.26666666666667</v>
       </c>
       <c r="F24" t="n">
-        <v>20.93333333333333</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="G24" t="n">
-        <v>82.8</v>
+        <v>34.8</v>
       </c>
       <c r="H24" t="n">
-        <v>83.16666666666667</v>
+        <v>33.97252702246527</v>
       </c>
       <c r="I24" t="n">
-        <v>73.86866666666667</v>
+        <v>32.82711268287716</v>
       </c>
       <c r="J24" t="n">
-        <v>33.92266666666666</v>
+        <v>11.28</v>
       </c>
       <c r="K24" t="n">
-        <v>162.964</v>
+        <v>29.66333333333333</v>
       </c>
       <c r="L24" t="n">
-        <v>9685.138666666668</v>
+        <v>1329.719333333333</v>
       </c>
     </row>
     <row r="25">
@@ -1524,31 +1524,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10.93333333333333</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>30.26666666666667</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="F25" t="n">
-        <v>19.33333333333333</v>
+        <v>27.06666666666667</v>
       </c>
       <c r="G25" t="n">
-        <v>92.53333333333335</v>
+        <v>37.8</v>
       </c>
       <c r="H25" t="n">
-        <v>92.75866666666667</v>
+        <v>37.54860899871579</v>
       </c>
       <c r="I25" t="n">
-        <v>79.01066666666667</v>
+        <v>36.59720718519655</v>
       </c>
       <c r="J25" t="n">
-        <v>38.448</v>
+        <v>12.24066666666667</v>
       </c>
       <c r="K25" t="n">
-        <v>170.1273333333333</v>
+        <v>28.04533333333333</v>
       </c>
       <c r="L25" t="n">
-        <v>11009.43333333333</v>
+        <v>1347.860666666667</v>
       </c>
     </row>
     <row r="26">
@@ -1568,31 +1568,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>30.56666666666667</v>
+        <v>29.9</v>
       </c>
       <c r="F26" t="n">
-        <v>20.4</v>
+        <v>27.9</v>
       </c>
       <c r="G26" t="n">
-        <v>95.63333333333333</v>
+        <v>39.75</v>
       </c>
       <c r="H26" t="n">
-        <v>95.94350000000001</v>
+        <v>39.3967775281548</v>
       </c>
       <c r="I26" t="n">
-        <v>84.30816666666668</v>
+        <v>37.33235087777216</v>
       </c>
       <c r="J26" t="n">
-        <v>39.47600000000001</v>
+        <v>12.67116666666667</v>
       </c>
       <c r="K26" t="n">
-        <v>165.5626666666667</v>
+        <v>25.7315</v>
       </c>
       <c r="L26" t="n">
-        <v>11256.62216666667</v>
+        <v>1424.270666666667</v>
       </c>
     </row>
     <row r="27">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10.73333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E27" t="n">
-        <v>31.03333333333333</v>
+        <v>29.6</v>
       </c>
       <c r="F27" t="n">
-        <v>20.3</v>
+        <v>26.93333333333333</v>
       </c>
       <c r="G27" t="n">
-        <v>93.5</v>
+        <v>40.33333333333334</v>
       </c>
       <c r="H27" t="n">
-        <v>93.69083333333333</v>
+        <v>39.42441268042686</v>
       </c>
       <c r="I27" t="n">
-        <v>83.242</v>
+        <v>36.96908105414823</v>
       </c>
       <c r="J27" t="n">
-        <v>36.93566666666667</v>
+        <v>13.03333333333333</v>
       </c>
       <c r="K27" t="n">
-        <v>144.5983333333333</v>
+        <v>26.87733333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>9743.541333333333</v>
+        <v>1546.086</v>
       </c>
     </row>
     <row r="28">
@@ -1656,31 +1656,31 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>30.26666666666667</v>
+        <v>30.53333333333333</v>
       </c>
       <c r="F28" t="n">
-        <v>19.46666666666667</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="G28" t="n">
-        <v>86.8</v>
+        <v>36.53333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>87.08</v>
+        <v>36.36736995743549</v>
       </c>
       <c r="I28" t="n">
-        <v>76.932</v>
+        <v>35.3708100297284</v>
       </c>
       <c r="J28" t="n">
-        <v>35.00066666666667</v>
+        <v>11.35266666666667</v>
       </c>
       <c r="K28" t="n">
-        <v>155.4086666666667</v>
+        <v>21.85533333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>9924.168</v>
+        <v>1235.477333333333</v>
       </c>
     </row>
     <row r="29">
@@ -1700,31 +1700,31 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9.866666666666667</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="F29" t="n">
-        <v>20.13333333333333</v>
+        <v>26.6</v>
       </c>
       <c r="G29" t="n">
-        <v>100.45</v>
+        <v>41.5</v>
       </c>
       <c r="H29" t="n">
-        <v>100.6725</v>
+        <v>41.09868748203535</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99416666666666</v>
+        <v>38.3087284838719</v>
       </c>
       <c r="J29" t="n">
-        <v>41.51116666666667</v>
+        <v>13.255</v>
       </c>
       <c r="K29" t="n">
-        <v>164.8906666666667</v>
+        <v>30.94766666666666</v>
       </c>
       <c r="L29" t="n">
-        <v>11646.63833333333</v>
+        <v>1593.982</v>
       </c>
     </row>
     <row r="30">
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>30.93333333333333</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>20.13333333333334</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="G30" t="n">
-        <v>85.66666666666667</v>
+        <v>36.06666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>86.074</v>
+        <v>34.77574752491721</v>
       </c>
       <c r="I30" t="n">
-        <v>79.34400000000001</v>
+        <v>32.80832522446712</v>
       </c>
       <c r="J30" t="n">
-        <v>35.74666666666666</v>
+        <v>11.71933333333333</v>
       </c>
       <c r="K30" t="n">
-        <v>178.01</v>
+        <v>27.99666666666667</v>
       </c>
       <c r="L30" t="n">
-        <v>10191.37066666667</v>
+        <v>1418.318666666667</v>
       </c>
     </row>
     <row r="31">
@@ -1788,31 +1788,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10.3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>30.7</v>
+        <v>29.5</v>
       </c>
       <c r="F31" t="n">
-        <v>20.4</v>
+        <v>27.5</v>
       </c>
       <c r="G31" t="n">
-        <v>94.93333333333334</v>
+        <v>39.16666666666666</v>
       </c>
       <c r="H31" t="n">
-        <v>95.1375</v>
+        <v>38.28144159751991</v>
       </c>
       <c r="I31" t="n">
-        <v>85.91699999999999</v>
+        <v>37.3378840890565</v>
       </c>
       <c r="J31" t="n">
-        <v>38.56816666666666</v>
+        <v>12.76416666666667</v>
       </c>
       <c r="K31" t="n">
-        <v>155.1821666666667</v>
+        <v>28.27516666666666</v>
       </c>
       <c r="L31" t="n">
-        <v>10746.83216666667</v>
+        <v>1449.993833333333</v>
       </c>
     </row>
     <row r="32">
@@ -1832,31 +1832,31 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
         <v>30.83333333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>20.03333333333333</v>
+        <v>28.83333333333333</v>
       </c>
       <c r="G32" t="n">
-        <v>94.16666666666667</v>
+        <v>39.86666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>94.58183333333334</v>
+        <v>39.05661896652227</v>
       </c>
       <c r="I32" t="n">
-        <v>81.72516666666667</v>
+        <v>36.81559220257041</v>
       </c>
       <c r="J32" t="n">
-        <v>38.33233333333333</v>
+        <v>13.138</v>
       </c>
       <c r="K32" t="n">
-        <v>150.8651666666667</v>
+        <v>26.49916666666667</v>
       </c>
       <c r="L32" t="n">
-        <v>10608.5025</v>
+        <v>1459.802</v>
       </c>
     </row>
     <row r="33">
@@ -1876,31 +1876,31 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10.91111111111111</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>30.46666666666667</v>
+        <v>27.47777777777778</v>
       </c>
       <c r="F33" t="n">
-        <v>19.55555555555556</v>
+        <v>25.47777777777778</v>
       </c>
       <c r="G33" t="n">
-        <v>89.92222222222222</v>
+        <v>37.85</v>
       </c>
       <c r="H33" t="n">
-        <v>90.30927777777778</v>
+        <v>37.34359528066337</v>
       </c>
       <c r="I33" t="n">
-        <v>78.21372222222222</v>
+        <v>35.34223069314348</v>
       </c>
       <c r="J33" t="n">
-        <v>36.96466666666667</v>
+        <v>12.20238888888889</v>
       </c>
       <c r="K33" t="n">
-        <v>160.6912222222222</v>
+        <v>27.27483333333333</v>
       </c>
       <c r="L33" t="n">
-        <v>10797.66244444444</v>
+        <v>1398.380833333333</v>
       </c>
     </row>
     <row r="34">
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>11.36666666666667</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>32.3</v>
+        <v>29.83333333333333</v>
       </c>
       <c r="F34" t="n">
-        <v>20.93333333333333</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>87.58333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="H34" t="n">
-        <v>87.86199999999998</v>
+        <v>36.87583039600676</v>
       </c>
       <c r="I34" t="n">
-        <v>75.226</v>
+        <v>35.84072805130058</v>
       </c>
       <c r="J34" t="n">
-        <v>36.251</v>
+        <v>11.90033333333333</v>
       </c>
       <c r="K34" t="n">
-        <v>162.1208333333333</v>
+        <v>26.95216666666667</v>
       </c>
       <c r="L34" t="n">
-        <v>10284.40516666667</v>
+        <v>1323.771666666667</v>
       </c>
     </row>
     <row r="35">
@@ -1964,31 +1964,31 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7.733333333333333</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
         <v>30.53333333333333</v>
       </c>
       <c r="F35" t="n">
-        <v>22.8</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>71.2</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>71.36133333333332</v>
+        <v>29.21947493326468</v>
       </c>
       <c r="I35" t="n">
-        <v>62.50999999999999</v>
+        <v>28.41220747080558</v>
       </c>
       <c r="J35" t="n">
-        <v>28.98266666666666</v>
+        <v>8.962666666666665</v>
       </c>
       <c r="K35" t="n">
-        <v>164.2206666666667</v>
+        <v>17.938</v>
       </c>
       <c r="L35" t="n">
-        <v>8201.624666666668</v>
+        <v>960.9673333333334</v>
       </c>
     </row>
     <row r="36">
@@ -2008,31 +2008,31 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>31.46666666666667</v>
+        <v>22.26666666666667</v>
       </c>
       <c r="F36" t="n">
-        <v>21.46666666666667</v>
+        <v>20.13333333333334</v>
       </c>
       <c r="G36" t="n">
-        <v>203.9333333333333</v>
+        <v>99.26666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>202.846</v>
+        <v>97.31887822601807</v>
       </c>
       <c r="I36" t="n">
-        <v>190.7753333333334</v>
+        <v>91.96472177741157</v>
       </c>
       <c r="J36" t="n">
-        <v>86.42066666666666</v>
+        <v>32.15866666666667</v>
       </c>
       <c r="K36" t="n">
-        <v>148.2046666666667</v>
+        <v>38.096</v>
       </c>
       <c r="L36" t="n">
-        <v>23055.95</v>
+        <v>4508.56</v>
       </c>
     </row>
     <row r="37">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10.93333333333333</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>32.53333333333333</v>
+        <v>24.26666666666667</v>
       </c>
       <c r="F37" t="n">
-        <v>21.6</v>
+        <v>22.26666666666667</v>
       </c>
       <c r="G37" t="n">
-        <v>184.8666666666667</v>
+        <v>84.86666666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>184.2673333333333</v>
+        <v>80.3234547486483</v>
       </c>
       <c r="I37" t="n">
-        <v>171.9706666666667</v>
+        <v>74.31703663558113</v>
       </c>
       <c r="J37" t="n">
-        <v>74.14066666666668</v>
+        <v>27.82</v>
       </c>
       <c r="K37" t="n">
-        <v>142.8326666666667</v>
+        <v>33.18666666666667</v>
       </c>
       <c r="L37" t="n">
-        <v>18851.46933333333</v>
+        <v>3547.028</v>
       </c>
     </row>
     <row r="38">
@@ -2096,31 +2096,31 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10.06666666666667</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>30.26666666666667</v>
+        <v>22.46666666666667</v>
       </c>
       <c r="F38" t="n">
-        <v>20.2</v>
+        <v>20.46666666666667</v>
       </c>
       <c r="G38" t="n">
-        <v>176.4333333333334</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>176.4973333333334</v>
+        <v>78.81553942974101</v>
       </c>
       <c r="I38" t="n">
-        <v>161.5255</v>
+        <v>73.78505550808141</v>
       </c>
       <c r="J38" t="n">
-        <v>69.223</v>
+        <v>26.85816666666667</v>
       </c>
       <c r="K38" t="n">
-        <v>149.5481666666667</v>
+        <v>33.30133333333333</v>
       </c>
       <c r="L38" t="n">
-        <v>18246.50333333333</v>
+        <v>3829.134166666667</v>
       </c>
     </row>
     <row r="39">
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10.53333333333333</v>
+        <v>2.8</v>
       </c>
       <c r="E39" t="n">
-        <v>32.33333333333334</v>
+        <v>25.7</v>
       </c>
       <c r="F39" t="n">
-        <v>21.8</v>
+        <v>22.9</v>
       </c>
       <c r="G39" t="n">
-        <v>184.85</v>
+        <v>83</v>
       </c>
       <c r="H39" t="n">
-        <v>182.1318333333334</v>
+        <v>79.20192992067423</v>
       </c>
       <c r="I39" t="n">
-        <v>172.3191666666667</v>
+        <v>77.64824869455431</v>
       </c>
       <c r="J39" t="n">
-        <v>73.10333333333332</v>
+        <v>27.27483333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>128.6311666666667</v>
+        <v>33.35366666666667</v>
       </c>
       <c r="L39" t="n">
-        <v>19140.04683333333</v>
+        <v>3812.379666666666</v>
       </c>
     </row>
     <row r="40">
@@ -2184,31 +2184,31 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>31.46666666666667</v>
+        <v>23.2</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="G40" t="n">
-        <v>197.7333333333333</v>
+        <v>90.53333333333335</v>
       </c>
       <c r="H40" t="n">
-        <v>197.8126666666666</v>
+        <v>87.72718633472452</v>
       </c>
       <c r="I40" t="n">
-        <v>181.7186666666666</v>
+        <v>81.86383939469557</v>
       </c>
       <c r="J40" t="n">
-        <v>78.96333333333332</v>
+        <v>29.998</v>
       </c>
       <c r="K40" t="n">
-        <v>139.6553333333333</v>
+        <v>36.66933333333333</v>
       </c>
       <c r="L40" t="n">
-        <v>19856.204</v>
+        <v>3992.999333333333</v>
       </c>
     </row>
     <row r="41">
@@ -2228,31 +2228,31 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11.33333333333333</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>33.2</v>
+        <v>21.7</v>
       </c>
       <c r="F41" t="n">
-        <v>21.86666666666667</v>
+        <v>19.56666666666667</v>
       </c>
       <c r="G41" t="n">
-        <v>192.2</v>
+        <v>91.58333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>189.768</v>
+        <v>88.70693836921015</v>
       </c>
       <c r="I41" t="n">
-        <v>177.406</v>
+        <v>85.21847169061887</v>
       </c>
       <c r="J41" t="n">
-        <v>78.03933333333333</v>
+        <v>30.19916666666667</v>
       </c>
       <c r="K41" t="n">
-        <v>133.0166666666667</v>
+        <v>40.739</v>
       </c>
       <c r="L41" t="n">
-        <v>19595.70133333333</v>
+        <v>4398.954666666667</v>
       </c>
     </row>
     <row r="42">
@@ -2272,31 +2272,31 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8.6</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>30.93333333333333</v>
+        <v>29.8</v>
       </c>
       <c r="F42" t="n">
-        <v>22.33333333333333</v>
+        <v>27.8</v>
       </c>
       <c r="G42" t="n">
-        <v>144.6888888888889</v>
+        <v>63.58333333333334</v>
       </c>
       <c r="H42" t="n">
-        <v>144.5423333333333</v>
+        <v>62.05620849565557</v>
       </c>
       <c r="I42" t="n">
-        <v>132.3872222222222</v>
+        <v>57.32807691594338</v>
       </c>
       <c r="J42" t="n">
-        <v>56.25</v>
+        <v>21.11383333333334</v>
       </c>
       <c r="K42" t="n">
-        <v>137.9854444444444</v>
+        <v>35.7765</v>
       </c>
       <c r="L42" t="n">
-        <v>14144.708</v>
+        <v>2876.293666666667</v>
       </c>
     </row>
     <row r="43">
@@ -2316,31 +2316,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10.76666666666667</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>29.66666666666667</v>
+        <v>28.76666666666667</v>
       </c>
       <c r="F43" t="n">
-        <v>18.9</v>
+        <v>26.76666666666667</v>
       </c>
       <c r="G43" t="n">
-        <v>155.2166666666667</v>
+        <v>67.5</v>
       </c>
       <c r="H43" t="n">
-        <v>155.2191666666667</v>
+        <v>65.00381755274279</v>
       </c>
       <c r="I43" t="n">
-        <v>142.9741666666667</v>
+        <v>62.25805444217852</v>
       </c>
       <c r="J43" t="n">
-        <v>62.26433333333333</v>
+        <v>22.2685</v>
       </c>
       <c r="K43" t="n">
-        <v>141.0355</v>
+        <v>28.74866666666667</v>
       </c>
       <c r="L43" t="n">
-        <v>16637.5825</v>
+        <v>2832.712333333333</v>
       </c>
     </row>
     <row r="44">
@@ -2360,31 +2360,31 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>30.53333333333333</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="F44" t="n">
-        <v>19.86666666666667</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="G44" t="n">
-        <v>161.3333333333333</v>
+        <v>70.60000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>161.6193333333333</v>
+        <v>68.58956146112423</v>
       </c>
       <c r="I44" t="n">
-        <v>145.0973333333334</v>
+        <v>64.03754441900804</v>
       </c>
       <c r="J44" t="n">
-        <v>64.928</v>
+        <v>23.18866666666667</v>
       </c>
       <c r="K44" t="n">
-        <v>141.0446666666666</v>
+        <v>30.72933333333333</v>
       </c>
       <c r="L44" t="n">
-        <v>16972.12866666667</v>
+        <v>3030.095333333333</v>
       </c>
     </row>
     <row r="45">
@@ -2404,31 +2404,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11.16666666666667</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>24.13333333333334</v>
       </c>
       <c r="F45" t="n">
-        <v>18.83333333333333</v>
+        <v>21.86666666666666</v>
       </c>
       <c r="G45" t="n">
-        <v>168.25</v>
+        <v>75.35000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>168.4875</v>
+        <v>73.48879803214156</v>
       </c>
       <c r="I45" t="n">
-        <v>151.1908333333334</v>
+        <v>67.88043579982315</v>
       </c>
       <c r="J45" t="n">
-        <v>67.10583333333334</v>
+        <v>24.18333333333334</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3283333333333</v>
+        <v>384803.8405</v>
       </c>
       <c r="L45" t="n">
-        <v>17854.01333333333</v>
+        <v>3464.701</v>
       </c>
     </row>
     <row r="46">
@@ -2448,31 +2448,31 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="E46" t="n">
-        <v>30.22222222222222</v>
+        <v>28.44444444444444</v>
       </c>
       <c r="F46" t="n">
-        <v>20.22222222222222</v>
+        <v>26.22222222222222</v>
       </c>
       <c r="G46" t="n">
-        <v>169.5555555555555</v>
+        <v>75.11111111111111</v>
       </c>
       <c r="H46" t="n">
-        <v>169.4644444444445</v>
+        <v>72.11609694088077</v>
       </c>
       <c r="I46" t="n">
-        <v>150.2777777777778</v>
+        <v>67.43126354238325</v>
       </c>
       <c r="J46" t="n">
-        <v>67.67555555555556</v>
+        <v>24.70666666666667</v>
       </c>
       <c r="K46" t="n">
-        <v>139.9377777777778</v>
+        <v>29.77888888888889</v>
       </c>
       <c r="L46" t="n">
-        <v>18263.14666666667</v>
+        <v>3038.667777777777</v>
       </c>
     </row>
     <row r="47">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11.73333333333333</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>30.4</v>
+        <v>25.46666666666667</v>
       </c>
       <c r="F47" t="n">
-        <v>18.66666666666667</v>
+        <v>23.2</v>
       </c>
       <c r="G47" t="n">
-        <v>152.6666666666667</v>
+        <v>70.46666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>152.8793333333333</v>
+        <v>68.26257854830872</v>
       </c>
       <c r="I47" t="n">
-        <v>137.6546666666667</v>
+        <v>63.60925383726709</v>
       </c>
       <c r="J47" t="n">
-        <v>60.31666666666666</v>
+        <v>22.73</v>
       </c>
       <c r="K47" t="n">
-        <v>154.1946666666667</v>
+        <v>32.72733333333333</v>
       </c>
       <c r="L47" t="n">
-        <v>15739.424</v>
+        <v>3116.744666666667</v>
       </c>
     </row>
     <row r="48">
@@ -2536,31 +2536,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10.93333333333333</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>31.86666666666666</v>
+        <v>27.06666666666667</v>
       </c>
       <c r="F48" t="n">
-        <v>20.93333333333333</v>
+        <v>24.8</v>
       </c>
       <c r="G48" t="n">
-        <v>162.7333333333333</v>
+        <v>78.93333333333332</v>
       </c>
       <c r="H48" t="n">
-        <v>162.714</v>
+        <v>76.72314984128339</v>
       </c>
       <c r="I48" t="n">
-        <v>150.9993333333333</v>
+        <v>70.42950271677783</v>
       </c>
       <c r="J48" t="n">
-        <v>59.85733333333334</v>
+        <v>24.582</v>
       </c>
       <c r="K48" t="n">
-        <v>116.4726666666667</v>
+        <v>28.852</v>
       </c>
       <c r="L48" t="n">
-        <v>14202.66066666666</v>
+        <v>3251.739333333333</v>
       </c>
     </row>
     <row r="49">
@@ -2580,31 +2580,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10.36666666666667</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>30.46666666666667</v>
+        <v>25.43333333333333</v>
       </c>
       <c r="F49" t="n">
-        <v>20.1</v>
+        <v>23.43333333333333</v>
       </c>
       <c r="G49" t="n">
-        <v>167.2</v>
+        <v>76.85000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>167.1271666666667</v>
+        <v>75.10174389122284</v>
       </c>
       <c r="I49" t="n">
-        <v>147.8813333333333</v>
+        <v>69.09430897140447</v>
       </c>
       <c r="J49" t="n">
-        <v>67.21900000000001</v>
+        <v>24.99883333333333</v>
       </c>
       <c r="K49" t="n">
-        <v>146.7591666666667</v>
+        <v>29.11966666666667</v>
       </c>
       <c r="L49" t="n">
-        <v>18092.70533333334</v>
+        <v>3239.158</v>
       </c>
     </row>
     <row r="50">
@@ -2624,31 +2624,31 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11.73333333333333</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="E50" t="n">
-        <v>29.93333333333333</v>
+        <v>26.03333333333333</v>
       </c>
       <c r="F50" t="n">
-        <v>18.2</v>
+        <v>23.76666666666667</v>
       </c>
       <c r="G50" t="n">
-        <v>173.7833333333333</v>
+        <v>79.35000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>174.1763333333333</v>
+        <v>75.92689731485387</v>
       </c>
       <c r="I50" t="n">
-        <v>159.338</v>
+        <v>70.50912865044471</v>
       </c>
       <c r="J50" t="n">
-        <v>69.492</v>
+        <v>25.96116666666667</v>
       </c>
       <c r="K50" t="n">
-        <v>120.233</v>
+        <v>54.661</v>
       </c>
       <c r="L50" t="n">
-        <v>19221.241</v>
+        <v>3678.359166666667</v>
       </c>
     </row>
     <row r="51">
@@ -2668,31 +2668,31 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>11.33333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E51" t="n">
-        <v>33.83333333333334</v>
+        <v>21.5</v>
       </c>
       <c r="F51" t="n">
-        <v>22.5</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="G51" t="n">
-        <v>171.5</v>
+        <v>74.5</v>
       </c>
       <c r="H51" t="n">
-        <v>169.2433333333333</v>
+        <v>71.25363106462747</v>
       </c>
       <c r="I51" t="n">
-        <v>157.3108333333333</v>
+        <v>67.90288030742759</v>
       </c>
       <c r="J51" t="n">
-        <v>72.57166666666667</v>
+        <v>24.90333333333334</v>
       </c>
       <c r="K51" t="n">
-        <v>149.7075</v>
+        <v>35.88833333333334</v>
       </c>
       <c r="L51" t="n">
-        <v>18712.48416666667</v>
+        <v>3602.333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9.466666666666667</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>29.33333333333333</v>
+        <v>23.15555555555556</v>
       </c>
       <c r="F52" t="n">
-        <v>19.86666666666666</v>
+        <v>21.15555555555556</v>
       </c>
       <c r="G52" t="n">
-        <v>167.6222222222222</v>
+        <v>76.08888888888889</v>
       </c>
       <c r="H52" t="n">
-        <v>167.2911111111111</v>
+        <v>74.5680348208158</v>
       </c>
       <c r="I52" t="n">
-        <v>152.088</v>
+        <v>68.28419769926664</v>
       </c>
       <c r="J52" t="n">
-        <v>65.75755555555556</v>
+        <v>25.02</v>
       </c>
       <c r="K52" t="n">
-        <v>130.7726666666667</v>
+        <v>34.29377777777778</v>
       </c>
       <c r="L52" t="n">
-        <v>16871.48422222222</v>
+        <v>3066.823555555555</v>
       </c>
     </row>
     <row r="53">
@@ -2756,31 +2756,31 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>30.93333333333333</v>
+        <v>20.63333333333333</v>
       </c>
       <c r="F53" t="n">
-        <v>20.93333333333333</v>
+        <v>18.63333333333333</v>
       </c>
       <c r="G53" t="n">
-        <v>193.7</v>
+        <v>88.60000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>193.0686666666667</v>
+        <v>84.53954850357756</v>
       </c>
       <c r="I53" t="n">
-        <v>169.9261666666667</v>
+        <v>76.01304007087504</v>
       </c>
       <c r="J53" t="n">
-        <v>74.87766666666667</v>
+        <v>29.48566666666666</v>
       </c>
       <c r="K53" t="n">
-        <v>116.5453333333333</v>
+        <v>43.57283333333334</v>
       </c>
       <c r="L53" t="n">
-        <v>17280.52833333333</v>
+        <v>4021.4805</v>
       </c>
     </row>
     <row r="54">
@@ -2800,31 +2800,31 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>34.53333333333333</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="F54" t="n">
-        <v>24.53333333333333</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="G54" t="n">
-        <v>188.9333333333333</v>
+        <v>83.60000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>185.8526666666667</v>
+        <v>80.43159938491419</v>
       </c>
       <c r="I54" t="n">
-        <v>174.81</v>
+        <v>74.96986554459228</v>
       </c>
       <c r="J54" t="n">
-        <v>76.03266666666667</v>
+        <v>28.20466666666667</v>
       </c>
       <c r="K54" t="n">
-        <v>137.6286666666667</v>
+        <v>45.40866666666667</v>
       </c>
       <c r="L54" t="n">
-        <v>17744.45333333333</v>
+        <v>4080.211333333334</v>
       </c>
     </row>
     <row r="55">
@@ -2844,31 +2844,31 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>31.64444444444445</v>
+        <v>21.91111111111111</v>
       </c>
       <c r="F55" t="n">
-        <v>21.64444444444445</v>
+        <v>19.91111111111111</v>
       </c>
       <c r="G55" t="n">
-        <v>181.5333333333333</v>
+        <v>85.37777777777778</v>
       </c>
       <c r="H55" t="n">
-        <v>181.8746666666667</v>
+        <v>81.03799883578053</v>
       </c>
       <c r="I55" t="n">
-        <v>164.9224444444444</v>
+        <v>74.27501885275701</v>
       </c>
       <c r="J55" t="n">
-        <v>70.27088888888889</v>
+        <v>28.45111111111111</v>
       </c>
       <c r="K55" t="n">
-        <v>111.0271111111111</v>
+        <v>35.95533333333334</v>
       </c>
       <c r="L55" t="n">
-        <v>15753.84777777778</v>
+        <v>3792.348666666667</v>
       </c>
     </row>
     <row r="56">
@@ -2888,31 +2888,31 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>29.86666666666666</v>
+        <v>23.2</v>
       </c>
       <c r="F56" t="n">
-        <v>19.86666666666666</v>
+        <v>21.2</v>
       </c>
       <c r="G56" t="n">
-        <v>196.6</v>
+        <v>88.93333333333334</v>
       </c>
       <c r="H56" t="n">
-        <v>193.9906666666667</v>
+        <v>85.78965919162283</v>
       </c>
       <c r="I56" t="n">
-        <v>168.8633333333333</v>
+        <v>76.27685160586083</v>
       </c>
       <c r="J56" t="n">
-        <v>77.65933333333334</v>
+        <v>30.23466666666667</v>
       </c>
       <c r="K56" t="n">
-        <v>120.1366666666667</v>
+        <v>39.82266666666667</v>
       </c>
       <c r="L56" t="n">
-        <v>18497.02066666667</v>
+        <v>4011.505333333333</v>
       </c>
     </row>
     <row r="57">
@@ -2932,31 +2932,31 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>36.66666666666666</v>
+        <v>18.8</v>
       </c>
       <c r="F57" t="n">
-        <v>26.66666666666667</v>
+        <v>16.8</v>
       </c>
       <c r="G57" t="n">
-        <v>187.65</v>
+        <v>80.78333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>187.0491666666667</v>
+        <v>78.33786751170642</v>
       </c>
       <c r="I57" t="n">
-        <v>172.1726666666667</v>
+        <v>71.64922545405928</v>
       </c>
       <c r="J57" t="n">
-        <v>77.06150000000001</v>
+        <v>27.91066666666667</v>
       </c>
       <c r="K57" t="n">
-        <v>132.0563333333333</v>
+        <v>44.62933333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>17953.9655</v>
+        <v>3994.671166666667</v>
       </c>
     </row>
     <row r="58">
@@ -2976,31 +2976,31 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>31.46666666666667</v>
+        <v>22.4</v>
       </c>
       <c r="F58" t="n">
-        <v>21.46666666666667</v>
+        <v>20.4</v>
       </c>
       <c r="G58" t="n">
-        <v>196.6</v>
+        <v>89.2</v>
       </c>
       <c r="H58" t="n">
-        <v>196.8313333333333</v>
+        <v>84.97943737404925</v>
       </c>
       <c r="I58" t="n">
-        <v>179.5053333333334</v>
+        <v>81.50788077322854</v>
       </c>
       <c r="J58" t="n">
-        <v>75.55333333333333</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="K58" t="n">
-        <v>131.5926666666667</v>
+        <v>35.07666666666667</v>
       </c>
       <c r="L58" t="n">
-        <v>17858.068</v>
+        <v>3756.322</v>
       </c>
     </row>
     <row r="59">
@@ -3020,31 +3020,31 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>30.8</v>
+        <v>20.8</v>
       </c>
       <c r="F59" t="n">
-        <v>20.66666666666667</v>
+        <v>18.8</v>
       </c>
       <c r="G59" t="n">
-        <v>178.3333333333333</v>
+        <v>81</v>
       </c>
       <c r="H59" t="n">
-        <v>178.61</v>
+        <v>77.76453296482975</v>
       </c>
       <c r="I59" t="n">
-        <v>156.9033333333333</v>
+        <v>72.28461446972956</v>
       </c>
       <c r="J59" t="n">
-        <v>68.82799999999999</v>
+        <v>27.06066666666667</v>
       </c>
       <c r="K59" t="n">
-        <v>122.0446666666667</v>
+        <v>38.59466666666668</v>
       </c>
       <c r="L59" t="n">
-        <v>16129.30133333333</v>
+        <v>3600.082</v>
       </c>
     </row>
     <row r="60">
@@ -3064,31 +3064,31 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>30.3</v>
+        <v>18.8</v>
       </c>
       <c r="F60" t="n">
-        <v>20.03333333333333</v>
+        <v>16.8</v>
       </c>
       <c r="G60" t="n">
-        <v>179.3166666666667</v>
+        <v>79.95</v>
       </c>
       <c r="H60" t="n">
-        <v>179.3316666666667</v>
+        <v>76.62594871133813</v>
       </c>
       <c r="I60" t="n">
-        <v>154.283</v>
+        <v>69.13544892730756</v>
       </c>
       <c r="J60" t="n">
-        <v>70.08716666666668</v>
+        <v>26.88183333333333</v>
       </c>
       <c r="K60" t="n">
-        <v>126.0348333333333</v>
+        <v>40.236</v>
       </c>
       <c r="L60" t="n">
-        <v>17006.8225</v>
+        <v>3756.286833333334</v>
       </c>
     </row>
     <row r="61">
@@ -3108,31 +3108,31 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>31.86666666666666</v>
+        <v>22.53333333333333</v>
       </c>
       <c r="F61" t="n">
-        <v>21.6</v>
+        <v>20.53333333333333</v>
       </c>
       <c r="G61" t="n">
-        <v>185.9333333333333</v>
+        <v>81.13333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>182.59</v>
+        <v>78.53058002428565</v>
       </c>
       <c r="I61" t="n">
-        <v>158.6013333333333</v>
+        <v>72.18096592873748</v>
       </c>
       <c r="J61" t="n">
-        <v>73.29266666666668</v>
+        <v>27.54066666666667</v>
       </c>
       <c r="K61" t="n">
-        <v>127.19</v>
+        <v>39.79666666666667</v>
       </c>
       <c r="L61" t="n">
-        <v>17200.31466666667</v>
+        <v>3683.640666666666</v>
       </c>
     </row>
     <row r="62">
@@ -3152,31 +3152,31 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>30.6</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="F62" t="n">
-        <v>20.43333333333333</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="G62" t="n">
-        <v>182.4166666666667</v>
+        <v>84.08333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>182.7568333333333</v>
+        <v>82.08062302135922</v>
       </c>
       <c r="I62" t="n">
-        <v>155.2418333333333</v>
+        <v>72.70885519452649</v>
       </c>
       <c r="J62" t="n">
-        <v>70.56383333333333</v>
+        <v>27.74966666666667</v>
       </c>
       <c r="K62" t="n">
-        <v>117.5128333333333</v>
+        <v>36.66616666666667</v>
       </c>
       <c r="L62" t="n">
-        <v>16759.01416666667</v>
+        <v>3581.606666666667</v>
       </c>
     </row>
     <row r="63">
@@ -3196,31 +3196,31 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>30.93333333333333</v>
+        <v>21.6</v>
       </c>
       <c r="F63" t="n">
-        <v>20.66666666666667</v>
+        <v>19.6</v>
       </c>
       <c r="G63" t="n">
-        <v>177.2</v>
+        <v>79.46666666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>177.1566666666667</v>
+        <v>76.76665114205389</v>
       </c>
       <c r="I63" t="n">
-        <v>156.702</v>
+        <v>68.43064816145905</v>
       </c>
       <c r="J63" t="n">
-        <v>69.85599999999999</v>
+        <v>26.75666666666666</v>
       </c>
       <c r="K63" t="n">
-        <v>122.938</v>
+        <v>39.37066666666666</v>
       </c>
       <c r="L63" t="n">
-        <v>16552.332</v>
+        <v>3621.497333333333</v>
       </c>
     </row>
     <row r="64">
@@ -3240,31 +3240,31 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>29.2</v>
+        <v>22.63333333333334</v>
       </c>
       <c r="F64" t="n">
-        <v>19.2</v>
+        <v>20.63333333333334</v>
       </c>
       <c r="G64" t="n">
-        <v>179.8333333333333</v>
+        <v>80.38333333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>180.2525</v>
+        <v>79.14320249479748</v>
       </c>
       <c r="I64" t="n">
-        <v>153.4265</v>
+        <v>71.57817231117451</v>
       </c>
       <c r="J64" t="n">
-        <v>69.73316666666666</v>
+        <v>26.63933333333334</v>
       </c>
       <c r="K64" t="n">
-        <v>125.7635</v>
+        <v>36.25483333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>16994.3025</v>
+        <v>3457.795333333333</v>
       </c>
     </row>
     <row r="65">
@@ -3284,31 +3284,31 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>30.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="F65" t="n">
-        <v>20.4</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="G65" t="n">
-        <v>176.5333333333333</v>
+        <v>81</v>
       </c>
       <c r="H65" t="n">
-        <v>176.7313333333333</v>
+        <v>77.46257292160141</v>
       </c>
       <c r="I65" t="n">
-        <v>159.8093333333333</v>
+        <v>70.96533247834684</v>
       </c>
       <c r="J65" t="n">
-        <v>68.13133333333333</v>
+        <v>27.00866666666667</v>
       </c>
       <c r="K65" t="n">
-        <v>118.7546666666667</v>
+        <v>37.78533333333333</v>
       </c>
       <c r="L65" t="n">
-        <v>15946.816</v>
+        <v>3556.918</v>
       </c>
     </row>
     <row r="66">
@@ -3328,31 +3328,31 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>31.93333333333333</v>
+        <v>19.86666666666667</v>
       </c>
       <c r="F66" t="n">
-        <v>21.76666666666667</v>
+        <v>17.86666666666667</v>
       </c>
       <c r="G66" t="n">
-        <v>181.0333333333333</v>
+        <v>82.3</v>
       </c>
       <c r="H66" t="n">
-        <v>180.5231666666666</v>
+        <v>79.92414069210695</v>
       </c>
       <c r="I66" t="n">
-        <v>154.8748333333333</v>
+        <v>70.94910584287184</v>
       </c>
       <c r="J66" t="n">
-        <v>70.49866666666667</v>
+        <v>27.35233333333333</v>
       </c>
       <c r="K66" t="n">
-        <v>115.2646666666667</v>
+        <v>39.30583333333333</v>
       </c>
       <c r="L66" t="n">
-        <v>16438.19133333333</v>
+        <v>3727.332666666667</v>
       </c>
     </row>
     <row r="67">
@@ -3372,31 +3372,31 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>10.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>31.73333333333333</v>
+        <v>20.8</v>
       </c>
       <c r="F67" t="n">
-        <v>21.6</v>
+        <v>18.8</v>
       </c>
       <c r="G67" t="n">
-        <v>181.8</v>
+        <v>80.8</v>
       </c>
       <c r="H67" t="n">
-        <v>181.0013333333333</v>
+        <v>77.48625438121108</v>
       </c>
       <c r="I67" t="n">
-        <v>157.2613333333333</v>
+        <v>70.31087304120634</v>
       </c>
       <c r="J67" t="n">
-        <v>71.214</v>
+        <v>27.34733333333334</v>
       </c>
       <c r="K67" t="n">
-        <v>118.4313333333333</v>
+        <v>40.12933333333334</v>
       </c>
       <c r="L67" t="n">
-        <v>16974.99133333334</v>
+        <v>3707.355333333333</v>
       </c>
     </row>
     <row r="68">
@@ -3416,31 +3416,31 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>29.73333333333333</v>
+        <v>24.3</v>
       </c>
       <c r="F68" t="n">
-        <v>19.46666666666667</v>
+        <v>22.3</v>
       </c>
       <c r="G68" t="n">
-        <v>174.4666666666667</v>
+        <v>77.98333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>174.7585</v>
+        <v>75.55410925023875</v>
       </c>
       <c r="I68" t="n">
-        <v>150.7978333333333</v>
+        <v>70.44368373505968</v>
       </c>
       <c r="J68" t="n">
-        <v>66.03733333333334</v>
+        <v>26.3605</v>
       </c>
       <c r="K68" t="n">
-        <v>108.116</v>
+        <v>38.04983333333333</v>
       </c>
       <c r="L68" t="n">
-        <v>15276.7295</v>
+        <v>3306.247833333333</v>
       </c>
     </row>
     <row r="69">
@@ -3460,31 +3460,31 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9.266666666666667</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>30.4</v>
+        <v>31.43333333333333</v>
       </c>
       <c r="F69" t="n">
-        <v>21.13333333333333</v>
+        <v>29.43333333333333</v>
       </c>
       <c r="G69" t="n">
-        <v>144.5166666666667</v>
+        <v>60.45</v>
       </c>
       <c r="H69" t="n">
-        <v>144.8001666666667</v>
+        <v>59.35089637398121</v>
       </c>
       <c r="I69" t="n">
-        <v>129.1891666666667</v>
+        <v>57.39652515311019</v>
       </c>
       <c r="J69" t="n">
-        <v>53.90083333333334</v>
+        <v>19.29366666666667</v>
       </c>
       <c r="K69" t="n">
-        <v>127.4826666666667</v>
+        <v>22.49733333333333</v>
       </c>
       <c r="L69" t="n">
-        <v>13220.12483333333</v>
+        <v>1915.662833333333</v>
       </c>
     </row>
     <row r="70">
@@ -3504,31 +3504,31 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>26.4</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="F70" t="n">
-        <v>16.26666666666667</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="G70" t="n">
-        <v>133.2666666666667</v>
+        <v>72.66666666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>133.516</v>
+        <v>69.73808261435397</v>
       </c>
       <c r="I70" t="n">
-        <v>123.3</v>
+        <v>65.18739300629458</v>
       </c>
       <c r="J70" t="n">
-        <v>48.90933333333334</v>
+        <v>23.02733333333333</v>
       </c>
       <c r="K70" t="n">
-        <v>97.72733333333333</v>
+        <v>35.82533333333333</v>
       </c>
       <c r="L70" t="n">
-        <v>11604.49933333333</v>
+        <v>2893.214666666667</v>
       </c>
     </row>
     <row r="71">
@@ -3548,31 +3548,31 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10.43333333333333</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>27</v>
+        <v>24.43333333333333</v>
       </c>
       <c r="F71" t="n">
-        <v>16.56666666666667</v>
+        <v>22.43333333333333</v>
       </c>
       <c r="G71" t="n">
-        <v>116.1</v>
+        <v>60.96666666666666</v>
       </c>
       <c r="H71" t="n">
-        <v>116.2666666666667</v>
+        <v>59.10669911977612</v>
       </c>
       <c r="I71" t="n">
-        <v>106.2068333333333</v>
+        <v>57.39699174732311</v>
       </c>
       <c r="J71" t="n">
-        <v>39.35233333333333</v>
+        <v>18.859</v>
       </c>
       <c r="K71" t="n">
-        <v>93.81066666666668</v>
+        <v>31.16516666666666</v>
       </c>
       <c r="L71" t="n">
-        <v>8403.084499999999</v>
+        <v>2346.368666666667</v>
       </c>
     </row>
     <row r="72">
@@ -3592,31 +3592,31 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10.63333333333333</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>30.03333333333333</v>
+        <v>20.62222222222222</v>
       </c>
       <c r="F72" t="n">
-        <v>19.4</v>
+        <v>18.62222222222222</v>
       </c>
       <c r="G72" t="n">
-        <v>116.4833333333333</v>
+        <v>63.51111111111111</v>
       </c>
       <c r="H72" t="n">
-        <v>116.3621666666667</v>
+        <v>62.3496468055446</v>
       </c>
       <c r="I72" t="n">
-        <v>104.6525</v>
+        <v>57.40944334621874</v>
       </c>
       <c r="J72" t="n">
-        <v>39.67266666666666</v>
+        <v>20.21533333333333</v>
       </c>
       <c r="K72" t="n">
-        <v>104.041</v>
+        <v>37.60044444444444</v>
       </c>
       <c r="L72" t="n">
-        <v>8549.5645</v>
+        <v>2669.390888888889</v>
       </c>
     </row>
     <row r="73">
@@ -3636,31 +3636,31 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>28</v>
+        <v>20.93333333333333</v>
       </c>
       <c r="F73" t="n">
-        <v>17.73333333333333</v>
+        <v>18.93333333333333</v>
       </c>
       <c r="G73" t="n">
-        <v>135.5666666666667</v>
+        <v>68.53333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>135.6791666666667</v>
+        <v>66.42214097068572</v>
       </c>
       <c r="I73" t="n">
-        <v>121.5333333333333</v>
+        <v>62.11630600265687</v>
       </c>
       <c r="J73" t="n">
-        <v>47.60466666666667</v>
+        <v>21.63233333333333</v>
       </c>
       <c r="K73" t="n">
-        <v>96.60416666666667</v>
+        <v>35.24483333333333</v>
       </c>
       <c r="L73" t="n">
-        <v>10473.38233333333</v>
+        <v>2787.589333333333</v>
       </c>
     </row>
     <row r="74">
@@ -3680,31 +3680,31 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10.16666666666667</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>28.7</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="F74" t="n">
-        <v>18.53333333333333</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="G74" t="n">
-        <v>127.0333333333333</v>
+        <v>60.15</v>
       </c>
       <c r="H74" t="n">
-        <v>127.2453333333333</v>
+        <v>59.58655089832959</v>
       </c>
       <c r="I74" t="n">
-        <v>115.6936666666667</v>
+        <v>56.68854672823742</v>
       </c>
       <c r="J74" t="n">
-        <v>43.76366666666667</v>
+        <v>19.03633333333334</v>
       </c>
       <c r="K74" t="n">
-        <v>99.64366666666666</v>
+        <v>29.41866666666667</v>
       </c>
       <c r="L74" t="n">
-        <v>9692.556333333334</v>
+        <v>2173.453</v>
       </c>
     </row>
     <row r="75">
@@ -3724,31 +3724,31 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10.53333333333333</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>26.8</v>
+        <v>19.06666666666667</v>
       </c>
       <c r="F75" t="n">
-        <v>16.26666666666667</v>
+        <v>17.06666666666667</v>
       </c>
       <c r="G75" t="n">
-        <v>135.9333333333333</v>
+        <v>71.13333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>136.2206666666667</v>
+        <v>69.18408606727195</v>
       </c>
       <c r="I75" t="n">
-        <v>128.3973333333333</v>
+        <v>64.36225365077649</v>
       </c>
       <c r="J75" t="n">
-        <v>46.80866666666666</v>
+        <v>22.37133333333333</v>
       </c>
       <c r="K75" t="n">
-        <v>84.146</v>
+        <v>34.728</v>
       </c>
       <c r="L75" t="n">
-        <v>9948.335333333334</v>
+        <v>2957.06</v>
       </c>
     </row>
     <row r="76">
@@ -3768,31 +3768,31 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10.93333333333333</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="E76" t="n">
-        <v>27.73333333333333</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="F76" t="n">
-        <v>16.8</v>
+        <v>21.2</v>
       </c>
       <c r="G76" t="n">
-        <v>120.4</v>
+        <v>61.13333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>120.84</v>
+        <v>58.9918120294297</v>
       </c>
       <c r="I76" t="n">
-        <v>108.9013333333333</v>
+        <v>56.96272950102361</v>
       </c>
       <c r="J76" t="n">
-        <v>40.22333333333334</v>
+        <v>19.342</v>
       </c>
       <c r="K76" t="n">
-        <v>85.372</v>
+        <v>33.02933333333333</v>
       </c>
       <c r="L76" t="n">
-        <v>8267.098</v>
+        <v>2414.722</v>
       </c>
     </row>
     <row r="77">
@@ -3812,31 +3812,31 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>30.9</v>
+        <v>24.46666666666667</v>
       </c>
       <c r="F77" t="n">
-        <v>20.23333333333333</v>
+        <v>22.46666666666667</v>
       </c>
       <c r="G77" t="n">
-        <v>115.4</v>
+        <v>57.06666666666666</v>
       </c>
       <c r="H77" t="n">
-        <v>115.546</v>
+        <v>54.83986693139897</v>
       </c>
       <c r="I77" t="n">
-        <v>108.6165</v>
+        <v>51.13960479223937</v>
       </c>
       <c r="J77" t="n">
-        <v>40.11533333333333</v>
+        <v>18.119</v>
       </c>
       <c r="K77" t="n">
-        <v>89.19600000000001</v>
+        <v>30.8</v>
       </c>
       <c r="L77" t="n">
-        <v>8512.8565</v>
+        <v>2123.689833333333</v>
       </c>
     </row>
     <row r="78">
@@ -3856,31 +3856,31 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>29.9</v>
+        <v>22.56666666666667</v>
       </c>
       <c r="F78" t="n">
-        <v>18.63333333333334</v>
+        <v>20.56666666666667</v>
       </c>
       <c r="G78" t="n">
-        <v>118.9833333333333</v>
+        <v>60.48333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>118.9988333333333</v>
+        <v>58.15483363535318</v>
       </c>
       <c r="I78" t="n">
-        <v>109.0895</v>
+        <v>54.35035909692161</v>
       </c>
       <c r="J78" t="n">
-        <v>41.40383333333333</v>
+        <v>19.4455</v>
       </c>
       <c r="K78" t="n">
-        <v>94.81849999999999</v>
+        <v>35.30633333333333</v>
       </c>
       <c r="L78" t="n">
-        <v>9005.830833333333</v>
+        <v>2508.3215</v>
       </c>
     </row>
     <row r="79">
@@ -3900,31 +3900,31 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10.83333333333333</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>26.8</v>
+        <v>21.36666666666666</v>
       </c>
       <c r="F79" t="n">
-        <v>15.96666666666667</v>
+        <v>19.36666666666667</v>
       </c>
       <c r="G79" t="n">
-        <v>102.3333333333333</v>
+        <v>53.25</v>
       </c>
       <c r="H79" t="n">
-        <v>102.6121666666667</v>
+        <v>52.08327860093621</v>
       </c>
       <c r="I79" t="n">
-        <v>94.06116666666667</v>
+        <v>49.42754122796644</v>
       </c>
       <c r="J79" t="n">
-        <v>36.655</v>
+        <v>16.948</v>
       </c>
       <c r="K79" t="n">
-        <v>106.8558333333333</v>
+        <v>34.88916666666667</v>
       </c>
       <c r="L79" t="n">
-        <v>9085.001666666667</v>
+        <v>2149.539666666667</v>
       </c>
     </row>
     <row r="80">
@@ -3944,31 +3944,31 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.3</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>30.56666666666667</v>
+        <v>25.5</v>
       </c>
       <c r="F80" t="n">
-        <v>19.26666666666667</v>
+        <v>23.5</v>
       </c>
       <c r="G80" t="n">
-        <v>119.1</v>
+        <v>57.9</v>
       </c>
       <c r="H80" t="n">
-        <v>118.4631666666667</v>
+        <v>55.93500013772874</v>
       </c>
       <c r="I80" t="n">
-        <v>111.4735</v>
+        <v>53.60682290847701</v>
       </c>
       <c r="J80" t="n">
-        <v>41.85366666666666</v>
+        <v>18.56966666666667</v>
       </c>
       <c r="K80" t="n">
-        <v>96.82383333333333</v>
+        <v>32.022</v>
       </c>
       <c r="L80" t="n">
-        <v>9166.532499999999</v>
+        <v>2194.6015</v>
       </c>
     </row>
     <row r="81">
@@ -3988,31 +3988,31 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>10.93333333333333</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>27.7</v>
+        <v>23</v>
       </c>
       <c r="F81" t="n">
-        <v>16.76666666666667</v>
+        <v>21</v>
       </c>
       <c r="G81" t="n">
-        <v>125.7</v>
+        <v>68</v>
       </c>
       <c r="H81" t="n">
-        <v>126.0215</v>
+        <v>65.3186979316705</v>
       </c>
       <c r="I81" t="n">
-        <v>117.5661666666667</v>
+        <v>61.17973243854885</v>
       </c>
       <c r="J81" t="n">
-        <v>43.3305</v>
+        <v>21.5005</v>
       </c>
       <c r="K81" t="n">
-        <v>93.78800000000001</v>
+        <v>34.39566666666667</v>
       </c>
       <c r="L81" t="n">
-        <v>9930.993833333334</v>
+        <v>2779.012666666667</v>
       </c>
     </row>
     <row r="82">
@@ -4032,31 +4032,31 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>10.53333333333333</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>28.4</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="F82" t="n">
-        <v>17.86666666666667</v>
+        <v>22.53333333333333</v>
       </c>
       <c r="G82" t="n">
-        <v>115.6</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>115.74</v>
+        <v>54.67383168005256</v>
       </c>
       <c r="I82" t="n">
-        <v>104.9433333333333</v>
+        <v>51.17435397416242</v>
       </c>
       <c r="J82" t="n">
-        <v>40.12466666666666</v>
+        <v>18.08533333333333</v>
       </c>
       <c r="K82" t="n">
-        <v>110.0066666666667</v>
+        <v>32.50266666666667</v>
       </c>
       <c r="L82" t="n">
-        <v>9018.775333333333</v>
+        <v>2151.464</v>
       </c>
     </row>
     <row r="83">
@@ -4076,31 +4076,31 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10.56666666666667</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>28.56666666666667</v>
+        <v>25.53333333333333</v>
       </c>
       <c r="F83" t="n">
-        <v>18</v>
+        <v>23.53333333333333</v>
       </c>
       <c r="G83" t="n">
-        <v>118.2833333333333</v>
+        <v>61.9</v>
       </c>
       <c r="H83" t="n">
-        <v>118.6356666666667</v>
+        <v>59.96353627992578</v>
       </c>
       <c r="I83" t="n">
-        <v>108.4978333333333</v>
+        <v>56.84167115292117</v>
       </c>
       <c r="J83" t="n">
-        <v>37.71933333333333</v>
+        <v>19.2595</v>
       </c>
       <c r="K83" t="n">
-        <v>80.85816666666666</v>
+        <v>-126788.3926666667</v>
       </c>
       <c r="L83" t="n">
-        <v>7220.7835</v>
+        <v>2282.429</v>
       </c>
     </row>
     <row r="84">
@@ -4120,31 +4120,31 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F84" t="n">
-        <v>15.33333333333333</v>
+        <v>22</v>
       </c>
       <c r="G84" t="n">
-        <v>126.9333333333333</v>
+        <v>64.2</v>
       </c>
       <c r="H84" t="n">
-        <v>127.1453333333333</v>
+        <v>61.83464937782679</v>
       </c>
       <c r="I84" t="n">
-        <v>117.196</v>
+        <v>58.89906483830288</v>
       </c>
       <c r="J84" t="n">
-        <v>43.54066666666666</v>
+        <v>20.18133333333333</v>
       </c>
       <c r="K84" t="n">
-        <v>90.54933333333332</v>
+        <v>37.982</v>
       </c>
       <c r="L84" t="n">
-        <v>9912.729999999998</v>
+        <v>2539.41</v>
       </c>
     </row>
     <row r="85">
@@ -4164,31 +4164,31 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>11.06666666666667</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>29.46666666666667</v>
+        <v>26</v>
       </c>
       <c r="F85" t="n">
-        <v>18.4</v>
+        <v>24</v>
       </c>
       <c r="G85" t="n">
-        <v>114.4666666666667</v>
+        <v>55.53333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>114.6686666666667</v>
+        <v>53.26589881758044</v>
       </c>
       <c r="I85" t="n">
-        <v>105.7486666666667</v>
+        <v>49.50108994856301</v>
       </c>
       <c r="J85" t="n">
-        <v>40.09866666666667</v>
+        <v>17.75133333333333</v>
       </c>
       <c r="K85" t="n">
-        <v>109.9106666666667</v>
+        <v>30.32666666666667</v>
       </c>
       <c r="L85" t="n">
-        <v>9389.875333333333</v>
+        <v>2030.336666666667</v>
       </c>
     </row>
     <row r="86">
@@ -4208,31 +4208,31 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>7.7</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E86" t="n">
-        <v>29.96666666666667</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="F86" t="n">
-        <v>22.26666666666667</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="G86" t="n">
-        <v>91.28333333333335</v>
+        <v>43.51666666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>91.40566666666666</v>
+        <v>42.8972160624399</v>
       </c>
       <c r="I86" t="n">
-        <v>81.6645</v>
+        <v>39.36714283519512</v>
       </c>
       <c r="J86" t="n">
-        <v>31.38816666666667</v>
+        <v>13.44816666666667</v>
       </c>
       <c r="K86" t="n">
-        <v>111.0071666666667</v>
+        <v>23.0555</v>
       </c>
       <c r="L86" t="n">
-        <v>7456.479833333334</v>
+        <v>1533.356333333333</v>
       </c>
     </row>
     <row r="87">
@@ -4252,31 +4252,31 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>31.6</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="F87" t="n">
-        <v>21.46666666666667</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="G87" t="n">
-        <v>115.6</v>
+        <v>48.4</v>
       </c>
       <c r="H87" t="n">
-        <v>115.0253333333333</v>
+        <v>47.93063495672165</v>
       </c>
       <c r="I87" t="n">
-        <v>104.6986666666667</v>
+        <v>46.51901729985828</v>
       </c>
       <c r="J87" t="n">
-        <v>47.078</v>
+        <v>15.73133333333333</v>
       </c>
       <c r="K87" t="n">
-        <v>144.226</v>
+        <v>28.21533333333333</v>
       </c>
       <c r="L87" t="n">
-        <v>11923.71333333333</v>
+        <v>1850.263333333333</v>
       </c>
     </row>
     <row r="88">
@@ -4296,31 +4296,31 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>31.33333333333333</v>
+        <v>28.13333333333334</v>
       </c>
       <c r="F88" t="n">
-        <v>20.66666666666667</v>
+        <v>26.13333333333334</v>
       </c>
       <c r="G88" t="n">
-        <v>107.9333333333333</v>
+        <v>43.46666666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>107.2913333333333</v>
+        <v>42.6702013760144</v>
       </c>
       <c r="I88" t="n">
-        <v>97.40933333333334</v>
+        <v>41.67400034348493</v>
       </c>
       <c r="J88" t="n">
-        <v>43.86133333333333</v>
+        <v>14.358</v>
       </c>
       <c r="K88" t="n">
-        <v>139.2473333333333</v>
+        <v>28.65866666666667</v>
       </c>
       <c r="L88" t="n">
-        <v>10999.19866666667</v>
+        <v>1694.862</v>
       </c>
     </row>
     <row r="89">
@@ -4340,31 +4340,31 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>10.13333333333333</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>31.73333333333333</v>
+        <v>27.2</v>
       </c>
       <c r="F89" t="n">
-        <v>21.6</v>
+        <v>25.2</v>
       </c>
       <c r="G89" t="n">
-        <v>118.4666666666667</v>
+        <v>48.4</v>
       </c>
       <c r="H89" t="n">
-        <v>116.9706666666667</v>
+        <v>47.97422990245213</v>
       </c>
       <c r="I89" t="n">
-        <v>107.1566666666667</v>
+        <v>46.88539145170507</v>
       </c>
       <c r="J89" t="n">
-        <v>48.762</v>
+        <v>16.08</v>
       </c>
       <c r="K89" t="n">
-        <v>152.4406666666667</v>
+        <v>31.91533333333333</v>
       </c>
       <c r="L89" t="n">
-        <v>12565.132</v>
+        <v>1943.288666666667</v>
       </c>
     </row>
     <row r="90">
@@ -4384,31 +4384,31 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>10.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>29.06666666666667</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="F90" t="n">
-        <v>18.73333333333333</v>
+        <v>22.73333333333333</v>
       </c>
       <c r="G90" t="n">
-        <v>110.6833333333333</v>
+        <v>46.25</v>
       </c>
       <c r="H90" t="n">
-        <v>111.0075</v>
+        <v>45.32450223969855</v>
       </c>
       <c r="I90" t="n">
-        <v>97.92883333333333</v>
+        <v>42.79865269600483</v>
       </c>
       <c r="J90" t="n">
-        <v>44.94266666666667</v>
+        <v>15.5335</v>
       </c>
       <c r="K90" t="n">
-        <v>137.8481666666667</v>
+        <v>33.77083333333334</v>
       </c>
       <c r="L90" t="n">
-        <v>11430.44066666667</v>
+        <v>1957.886</v>
       </c>
     </row>
     <row r="91">
@@ -4428,31 +4428,31 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10.53333333333333</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>29.86666666666666</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="F91" t="n">
-        <v>19.33333333333333</v>
+        <v>26.26666666666667</v>
       </c>
       <c r="G91" t="n">
-        <v>110.8</v>
+        <v>45.46666666666666</v>
       </c>
       <c r="H91" t="n">
-        <v>111.114</v>
+        <v>44.82869487009096</v>
       </c>
       <c r="I91" t="n">
-        <v>104.0053333333333</v>
+        <v>43.91979445020945</v>
       </c>
       <c r="J91" t="n">
-        <v>43.54133333333334</v>
+        <v>14.89933333333333</v>
       </c>
       <c r="K91" t="n">
-        <v>133.6206666666667</v>
+        <v>28.08933333333333</v>
       </c>
       <c r="L91" t="n">
-        <v>10952.814</v>
+        <v>1640.806666666667</v>
       </c>
     </row>
     <row r="92">
@@ -4472,31 +4472,31 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>31.33333333333333</v>
+        <v>26.6</v>
       </c>
       <c r="F92" t="n">
-        <v>20.66666666666667</v>
+        <v>24.6</v>
       </c>
       <c r="G92" t="n">
-        <v>112.1</v>
+        <v>46.5</v>
       </c>
       <c r="H92" t="n">
-        <v>112.1016666666667</v>
+        <v>45.92922463910014</v>
       </c>
       <c r="I92" t="n">
-        <v>102.6981666666667</v>
+        <v>44.78575326971249</v>
       </c>
       <c r="J92" t="n">
-        <v>45.642</v>
+        <v>15.09666666666667</v>
       </c>
       <c r="K92" t="n">
-        <v>136.7975</v>
+        <v>29.58033333333333</v>
       </c>
       <c r="L92" t="n">
-        <v>11464.19683333333</v>
+        <v>1841.982166666666</v>
       </c>
     </row>
     <row r="93">
@@ -4516,31 +4516,31 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>10.26666666666667</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="F93" t="n">
-        <v>20.13333333333333</v>
+        <v>27.6</v>
       </c>
       <c r="G93" t="n">
-        <v>103.2</v>
+        <v>43</v>
       </c>
       <c r="H93" t="n">
-        <v>103.4226666666667</v>
+        <v>42.68669945891108</v>
       </c>
       <c r="I93" t="n">
-        <v>94.19</v>
+        <v>40.42481503081314</v>
       </c>
       <c r="J93" t="n">
-        <v>40.98666666666667</v>
+        <v>13.998</v>
       </c>
       <c r="K93" t="n">
-        <v>139.234</v>
+        <v>27.10666666666667</v>
       </c>
       <c r="L93" t="n">
-        <v>10378.06266666667</v>
+        <v>1532.440666666667</v>
       </c>
     </row>
     <row r="94">
@@ -4560,31 +4560,31 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>31.73333333333333</v>
+        <v>28.93333333333333</v>
       </c>
       <c r="F94" t="n">
-        <v>20.93333333333333</v>
+        <v>26.93333333333333</v>
       </c>
       <c r="G94" t="n">
-        <v>102.7333333333333</v>
+        <v>42.46666666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>102.5053333333333</v>
+        <v>41.90372639488658</v>
       </c>
       <c r="I94" t="n">
-        <v>94.682</v>
+        <v>41.05926527640194</v>
       </c>
       <c r="J94" t="n">
-        <v>41.10933333333333</v>
+        <v>13.62466666666667</v>
       </c>
       <c r="K94" t="n">
-        <v>139.3986666666667</v>
+        <v>28.04933333333333</v>
       </c>
       <c r="L94" t="n">
-        <v>10359.218</v>
+        <v>1604.393333333333</v>
       </c>
     </row>
     <row r="95">
@@ -4604,31 +4604,31 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>10.93333333333333</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>30.26666666666667</v>
+        <v>29.6</v>
       </c>
       <c r="F95" t="n">
-        <v>19.33333333333333</v>
+        <v>27.6</v>
       </c>
       <c r="G95" t="n">
-        <v>101.8666666666667</v>
+        <v>42.4</v>
       </c>
       <c r="H95" t="n">
-        <v>102.058</v>
+        <v>41.6705042091497</v>
       </c>
       <c r="I95" t="n">
-        <v>92.31266666666666</v>
+        <v>40.6000551447742</v>
       </c>
       <c r="J95" t="n">
-        <v>40.276</v>
+        <v>13.618</v>
       </c>
       <c r="K95" t="n">
-        <v>132.78</v>
+        <v>25.38733333333333</v>
       </c>
       <c r="L95" t="n">
-        <v>10221.66533333333</v>
+        <v>1448.080666666667</v>
       </c>
     </row>
     <row r="96">
@@ -4648,31 +4648,31 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>10.93333333333333</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>31.6</v>
+        <v>25.06666666666666</v>
       </c>
       <c r="F96" t="n">
-        <v>20.66666666666667</v>
+        <v>23.06666666666666</v>
       </c>
       <c r="G96" t="n">
-        <v>106.3333333333333</v>
+        <v>42.86666666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>103.6013333333333</v>
+        <v>42.00376236628329</v>
       </c>
       <c r="I96" t="n">
-        <v>97.56599999999999</v>
+        <v>40.24159733517686</v>
       </c>
       <c r="J96" t="n">
-        <v>42.552</v>
+        <v>14.454</v>
       </c>
       <c r="K96" t="n">
-        <v>140.0713333333333</v>
+        <v>33.21333333333333</v>
       </c>
       <c r="L96" t="n">
-        <v>10795.072</v>
+        <v>1936.22</v>
       </c>
     </row>
     <row r="97">
@@ -4692,31 +4692,31 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>31.73333333333333</v>
+        <v>27.73333333333333</v>
       </c>
       <c r="F97" t="n">
-        <v>21.33333333333333</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="G97" t="n">
-        <v>99.8888888888889</v>
+        <v>41.6</v>
       </c>
       <c r="H97" t="n">
-        <v>100.0388888888889</v>
+        <v>41.04627198736539</v>
       </c>
       <c r="I97" t="n">
-        <v>90.47266666666667</v>
+        <v>39.98601807470013</v>
       </c>
       <c r="J97" t="n">
-        <v>39.894</v>
+        <v>13.41666666666667</v>
       </c>
       <c r="K97" t="n">
-        <v>132.6611111111111</v>
+        <v>28.31244444444445</v>
       </c>
       <c r="L97" t="n">
-        <v>9982.842444444444</v>
+        <v>1662.597111111111</v>
       </c>
     </row>
     <row r="98">
@@ -4736,31 +4736,31 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>10.63333333333333</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>30</v>
+        <v>29.03333333333333</v>
       </c>
       <c r="F98" t="n">
-        <v>19.36666666666667</v>
+        <v>27.03333333333333</v>
       </c>
       <c r="G98" t="n">
-        <v>111.2666666666667</v>
+        <v>45.86666666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>111.5948333333333</v>
+        <v>45.38231568525659</v>
       </c>
       <c r="I98" t="n">
-        <v>101.16</v>
+        <v>43.72346684683767</v>
       </c>
       <c r="J98" t="n">
-        <v>44.16066666666666</v>
+        <v>15.07883333333333</v>
       </c>
       <c r="K98" t="n">
-        <v>137.4635</v>
+        <v>30.38666666666667</v>
       </c>
       <c r="L98" t="n">
-        <v>11194.05683333333</v>
+        <v>1662.511666666667</v>
       </c>
     </row>
     <row r="99">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>10.43333333333333</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>30.16666666666667</v>
+        <v>30.13333333333334</v>
       </c>
       <c r="F99" t="n">
-        <v>19.73333333333333</v>
+        <v>28.13333333333334</v>
       </c>
       <c r="G99" t="n">
-        <v>102.75</v>
+        <v>41.95</v>
       </c>
       <c r="H99" t="n">
-        <v>103.0265</v>
+        <v>40.81549550128934</v>
       </c>
       <c r="I99" t="n">
-        <v>94.788</v>
+        <v>40.4485493903177</v>
       </c>
       <c r="J99" t="n">
-        <v>40.52733333333334</v>
+        <v>13.61166666666667</v>
       </c>
       <c r="K99" t="n">
-        <v>135.4646666666667</v>
+        <v>27.5075</v>
       </c>
       <c r="L99" t="n">
-        <v>10274.72066666667</v>
+        <v>1510.1865</v>
       </c>
     </row>
     <row r="100">
@@ -4824,31 +4824,31 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="F100" t="n">
-        <v>19.33333333333333</v>
+        <v>29.2</v>
       </c>
       <c r="G100" t="n">
-        <v>103.9666666666667</v>
+        <v>41.91666666666666</v>
       </c>
       <c r="H100" t="n">
-        <v>104.1433333333333</v>
+        <v>40.98424187912538</v>
       </c>
       <c r="I100" t="n">
-        <v>96.22966666666667</v>
+        <v>39.5184858911814</v>
       </c>
       <c r="J100" t="n">
-        <v>41.52383333333333</v>
+        <v>13.62983333333333</v>
       </c>
       <c r="K100" t="n">
-        <v>140.6843333333333</v>
+        <v>24.61733333333333</v>
       </c>
       <c r="L100" t="n">
-        <v>10623.79283333333</v>
+        <v>1417.9485</v>
       </c>
     </row>
     <row r="101">
@@ -4868,31 +4868,31 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>10.33333333333333</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="E101" t="n">
-        <v>30.13333333333334</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F101" t="n">
-        <v>19.8</v>
+        <v>28.4</v>
       </c>
       <c r="G101" t="n">
-        <v>96.43333333333334</v>
+        <v>39.56666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>96.77149999999999</v>
+        <v>39.33345598752363</v>
       </c>
       <c r="I101" t="n">
-        <v>85.10366666666668</v>
+        <v>38.70075568319134</v>
       </c>
       <c r="J101" t="n">
-        <v>37.92916666666667</v>
+        <v>12.66733333333333</v>
       </c>
       <c r="K101" t="n">
-        <v>137.142</v>
+        <v>24.48183333333333</v>
       </c>
       <c r="L101" t="n">
-        <v>9735.510166666667</v>
+        <v>1358.7865</v>
       </c>
     </row>
     <row r="102">
@@ -4912,31 +4912,31 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>10.53333333333333</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="E102" t="n">
-        <v>30</v>
+        <v>28.8</v>
       </c>
       <c r="F102" t="n">
-        <v>19.46666666666667</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G102" t="n">
-        <v>101.6666666666667</v>
+        <v>42.26666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>101.9473333333333</v>
+        <v>41.85243323995565</v>
       </c>
       <c r="I102" t="n">
-        <v>91.91066666666667</v>
+        <v>40.06870540846133</v>
       </c>
       <c r="J102" t="n">
-        <v>39.496</v>
+        <v>13.48133333333333</v>
       </c>
       <c r="K102" t="n">
-        <v>129.498</v>
+        <v>25.642</v>
       </c>
       <c r="L102" t="n">
-        <v>9781.767333333333</v>
+        <v>1516.314</v>
       </c>
     </row>
     <row r="103">
@@ -4956,31 +4956,31 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>8.9</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>29.13333333333334</v>
+        <v>30.2</v>
       </c>
       <c r="F103" t="n">
-        <v>20.23333333333333</v>
+        <v>28.2</v>
       </c>
       <c r="G103" t="n">
-        <v>75.21666666666667</v>
+        <v>33.13333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>75.1015</v>
+        <v>32.67404195166328</v>
       </c>
       <c r="I103" t="n">
-        <v>68.04366666666665</v>
+        <v>31.94838541125505</v>
       </c>
       <c r="J103" t="n">
-        <v>28.40083333333333</v>
+        <v>9.628666666666668</v>
       </c>
       <c r="K103" t="n">
-        <v>139.8908333333333</v>
+        <v>18.11983333333333</v>
       </c>
       <c r="L103" t="n">
-        <v>7333.629166666667</v>
+        <v>937.2171666666668</v>
       </c>
     </row>
   </sheetData>

--- a/[3] Test Input/RESULTS_MERGED_DATE.xlsx
+++ b/[3] Test Input/RESULTS_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -512,30 +502,24 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>26.93333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>26.93333333333333</v>
+        <v>31.18333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>24.93333333333333</v>
+        <v>30.38473692393991</v>
       </c>
       <c r="G2" t="n">
-        <v>31.18333333333333</v>
+        <v>28.51360951273955</v>
       </c>
       <c r="H2" t="n">
-        <v>30.38473692393991</v>
+        <v>9.979000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51360951273955</v>
+        <v>22.78366666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>9.979000000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>22.78366666666667</v>
-      </c>
-      <c r="L2" t="n">
         <v>1218.541666666667</v>
       </c>
     </row>
@@ -556,30 +540,24 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>28.26666666666667</v>
+        <v>32.85</v>
       </c>
       <c r="F3" t="n">
-        <v>26.26666666666667</v>
+        <v>32.18698547662544</v>
       </c>
       <c r="G3" t="n">
-        <v>32.85</v>
+        <v>30.40236517399127</v>
       </c>
       <c r="H3" t="n">
-        <v>32.18698547662544</v>
+        <v>10.74916666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>30.40236517399127</v>
+        <v>27.3455</v>
       </c>
       <c r="J3" t="n">
-        <v>10.74916666666667</v>
-      </c>
-      <c r="K3" t="n">
-        <v>27.3455</v>
-      </c>
-      <c r="L3" t="n">
         <v>1315.69</v>
       </c>
     </row>
@@ -600,30 +578,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>28.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>26.66666666666667</v>
+        <v>32.03999476587148</v>
       </c>
       <c r="G4" t="n">
-        <v>33.33333333333334</v>
+        <v>29.60943792949716</v>
       </c>
       <c r="H4" t="n">
-        <v>32.03999476587148</v>
+        <v>10.94666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>29.60943792949716</v>
+        <v>26.254</v>
       </c>
       <c r="J4" t="n">
-        <v>10.94666666666667</v>
-      </c>
-      <c r="K4" t="n">
-        <v>26.254</v>
-      </c>
-      <c r="L4" t="n">
         <v>1233.417333333333</v>
       </c>
     </row>
@@ -644,30 +616,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>29.46666666666667</v>
+        <v>33.46666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>27.46666666666667</v>
+        <v>32.4307029330715</v>
       </c>
       <c r="G5" t="n">
-        <v>33.46666666666667</v>
+        <v>29.81742175491021</v>
       </c>
       <c r="H5" t="n">
-        <v>32.4307029330715</v>
+        <v>10.99533333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>29.81742175491021</v>
+        <v>28.0975</v>
       </c>
       <c r="J5" t="n">
-        <v>10.99533333333333</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28.0975</v>
-      </c>
-      <c r="L5" t="n">
         <v>1246.010666666667</v>
       </c>
     </row>
@@ -688,30 +654,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>30.53333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>30.53333333333333</v>
+        <v>32.73333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>28.53333333333333</v>
+        <v>32.57028225084435</v>
       </c>
       <c r="G6" t="n">
-        <v>32.73333333333333</v>
+        <v>30.15209737976659</v>
       </c>
       <c r="H6" t="n">
-        <v>32.57028225084435</v>
+        <v>10.34533333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>30.15209737976659</v>
+        <v>22.80333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>10.34533333333333</v>
-      </c>
-      <c r="K6" t="n">
-        <v>22.80333333333333</v>
-      </c>
-      <c r="L6" t="n">
         <v>1119.82</v>
       </c>
     </row>
@@ -732,30 +692,24 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>25.2</v>
       </c>
       <c r="E7" t="n">
-        <v>25.2</v>
+        <v>31.98333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2</v>
+        <v>30.74579525315714</v>
       </c>
       <c r="G7" t="n">
-        <v>31.98333333333333</v>
+        <v>29.16186550526895</v>
       </c>
       <c r="H7" t="n">
-        <v>30.74579525315714</v>
+        <v>10.53666666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>29.16186550526895</v>
+        <v>29.65016666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>10.53666666666667</v>
-      </c>
-      <c r="K7" t="n">
-        <v>29.65016666666667</v>
-      </c>
-      <c r="L7" t="n">
         <v>1295.411666666667</v>
       </c>
     </row>
@@ -776,30 +730,24 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>26.86666666666666</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>26.050369330727</v>
       </c>
       <c r="G8" t="n">
-        <v>26.86666666666666</v>
+        <v>23.47647984321411</v>
       </c>
       <c r="H8" t="n">
-        <v>26.050369330727</v>
+        <v>8.471333333333334</v>
       </c>
       <c r="I8" t="n">
-        <v>23.47647984321411</v>
+        <v>18.61733333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>8.471333333333334</v>
-      </c>
-      <c r="K8" t="n">
-        <v>18.61733333333333</v>
-      </c>
-      <c r="L8" t="n">
         <v>901.6393333333332</v>
       </c>
     </row>
@@ -820,30 +768,24 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>32.16666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>32.16666666666666</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>30.16666666666667</v>
+        <v>23.13080513976111</v>
       </c>
       <c r="G9" t="n">
-        <v>23.66666666666667</v>
+        <v>22.01720956758423</v>
       </c>
       <c r="H9" t="n">
-        <v>23.13080513976111</v>
+        <v>7.192333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>22.01720956758423</v>
+        <v>16.016</v>
       </c>
       <c r="J9" t="n">
-        <v>7.192333333333333</v>
-      </c>
-      <c r="K9" t="n">
-        <v>16.016</v>
-      </c>
-      <c r="L9" t="n">
         <v>879.5341666666667</v>
       </c>
     </row>
@@ -864,30 +806,24 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>29.6</v>
       </c>
       <c r="E10" t="n">
-        <v>29.6</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>27.6</v>
+        <v>23.77836461955152</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>22.05022289311534</v>
       </c>
       <c r="H10" t="n">
-        <v>23.77836461955152</v>
+        <v>7.442</v>
       </c>
       <c r="I10" t="n">
-        <v>22.05022289311534</v>
+        <v>20.17666666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>7.442</v>
-      </c>
-      <c r="K10" t="n">
-        <v>20.17666666666667</v>
-      </c>
-      <c r="L10" t="n">
         <v>909.1833333333333</v>
       </c>
     </row>
@@ -908,30 +844,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>30.63333333333334</v>
       </c>
       <c r="E11" t="n">
-        <v>30.63333333333334</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>28.63333333333334</v>
+        <v>25.17330777581476</v>
       </c>
       <c r="G11" t="n">
-        <v>25.33333333333333</v>
+        <v>23.96515424182688</v>
       </c>
       <c r="H11" t="n">
-        <v>25.17330777581476</v>
+        <v>7.735166666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>23.96515424182688</v>
+        <v>18.7295</v>
       </c>
       <c r="J11" t="n">
-        <v>7.735166666666667</v>
-      </c>
-      <c r="K11" t="n">
-        <v>18.7295</v>
-      </c>
-      <c r="L11" t="n">
         <v>885.2536666666665</v>
       </c>
     </row>
@@ -952,30 +882,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.133333333333333</v>
+        <v>29.93333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>29.93333333333333</v>
+        <v>25.03333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>27.8</v>
+        <v>24.47745937842937</v>
       </c>
       <c r="G12" t="n">
-        <v>25.03333333333333</v>
+        <v>22.98421370507405</v>
       </c>
       <c r="H12" t="n">
-        <v>24.47745937842937</v>
+        <v>7.738166666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>22.98421370507405</v>
+        <v>21.21483333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>7.738166666666667</v>
-      </c>
-      <c r="K12" t="n">
-        <v>21.21483333333333</v>
-      </c>
-      <c r="L12" t="n">
         <v>947.098</v>
       </c>
     </row>
@@ -996,30 +920,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="E13" t="n">
-        <v>32.66666666666666</v>
+        <v>25.4</v>
       </c>
       <c r="F13" t="n">
-        <v>30.66666666666667</v>
+        <v>24.97155905641533</v>
       </c>
       <c r="G13" t="n">
-        <v>25.4</v>
+        <v>22.80831821460052</v>
       </c>
       <c r="H13" t="n">
-        <v>24.97155905641533</v>
+        <v>8.011333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>22.80831821460052</v>
+        <v>19.10333333333334</v>
       </c>
       <c r="J13" t="n">
-        <v>8.011333333333333</v>
-      </c>
-      <c r="K13" t="n">
-        <v>19.10333333333334</v>
-      </c>
-      <c r="L13" t="n">
         <v>913.6273333333334</v>
       </c>
     </row>
@@ -1040,30 +958,24 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>29.21666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>28.41784236690033</v>
       </c>
       <c r="G14" t="n">
-        <v>29.21666666666667</v>
+        <v>24.94757445555236</v>
       </c>
       <c r="H14" t="n">
-        <v>28.41784236690033</v>
+        <v>9.283333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>24.94757445555236</v>
+        <v>21.27966666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>9.283333333333333</v>
-      </c>
-      <c r="K14" t="n">
-        <v>21.27966666666667</v>
-      </c>
-      <c r="L14" t="n">
         <v>969.1013333333334</v>
       </c>
     </row>
@@ -1084,30 +996,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>30.13333333333334</v>
       </c>
       <c r="E15" t="n">
-        <v>30.13333333333334</v>
+        <v>31.91666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>28.13333333333334</v>
+        <v>30.90607368055965</v>
       </c>
       <c r="G15" t="n">
-        <v>31.91666666666667</v>
+        <v>28.98692710339716</v>
       </c>
       <c r="H15" t="n">
-        <v>30.90607368055965</v>
+        <v>10.00116666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>28.98692710339716</v>
+        <v>22.53683333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>10.00116666666667</v>
-      </c>
-      <c r="K15" t="n">
-        <v>22.53683333333333</v>
-      </c>
-      <c r="L15" t="n">
         <v>1152.021166666667</v>
       </c>
     </row>
@@ -1128,30 +1034,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>30.1</v>
       </c>
       <c r="E16" t="n">
-        <v>30.1</v>
+        <v>24.98333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>28.1</v>
+        <v>24.62253374168371</v>
       </c>
       <c r="G16" t="n">
-        <v>24.98333333333333</v>
+        <v>22.64791534827422</v>
       </c>
       <c r="H16" t="n">
-        <v>24.62253374168371</v>
+        <v>7.879</v>
       </c>
       <c r="I16" t="n">
-        <v>22.64791534827422</v>
+        <v>23.8555</v>
       </c>
       <c r="J16" t="n">
-        <v>7.879</v>
-      </c>
-      <c r="K16" t="n">
-        <v>23.8555</v>
-      </c>
-      <c r="L16" t="n">
         <v>1012.2305</v>
       </c>
     </row>
@@ -1172,30 +1072,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>31.06666666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>31.06666666666667</v>
+        <v>26.4</v>
       </c>
       <c r="F17" t="n">
-        <v>29.06666666666667</v>
+        <v>25.91287969036331</v>
       </c>
       <c r="G17" t="n">
-        <v>26.4</v>
+        <v>24.00365140276805</v>
       </c>
       <c r="H17" t="n">
-        <v>25.91287969036331</v>
+        <v>8.07</v>
       </c>
       <c r="I17" t="n">
-        <v>24.00365140276805</v>
+        <v>20.28466666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="K17" t="n">
-        <v>20.28466666666667</v>
-      </c>
-      <c r="L17" t="n">
         <v>934.4475555555556</v>
       </c>
     </row>
@@ -1216,30 +1110,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>31.86666666666666</v>
       </c>
       <c r="E18" t="n">
-        <v>31.86666666666666</v>
+        <v>23.68333333333333</v>
       </c>
       <c r="F18" t="n">
-        <v>29.86666666666666</v>
+        <v>23.65131213526695</v>
       </c>
       <c r="G18" t="n">
-        <v>23.68333333333333</v>
+        <v>22.7150026184309</v>
       </c>
       <c r="H18" t="n">
-        <v>23.65131213526695</v>
+        <v>6.962666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>22.7150026184309</v>
+        <v>13.78</v>
       </c>
       <c r="J18" t="n">
-        <v>6.962666666666667</v>
-      </c>
-      <c r="K18" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="L18" t="n">
         <v>707.6145</v>
       </c>
     </row>
@@ -1260,30 +1148,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>28.53333333333333</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="F19" t="n">
-        <v>26.53333333333333</v>
+        <v>40.87845291321089</v>
       </c>
       <c r="G19" t="n">
-        <v>41.33333333333334</v>
+        <v>39.58613619825278</v>
       </c>
       <c r="H19" t="n">
-        <v>40.87845291321089</v>
+        <v>13.40466666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>39.58613619825278</v>
+        <v>27.402</v>
       </c>
       <c r="J19" t="n">
-        <v>13.40466666666667</v>
-      </c>
-      <c r="K19" t="n">
-        <v>27.402</v>
-      </c>
-      <c r="L19" t="n">
         <v>1477.728666666667</v>
       </c>
     </row>
@@ -1304,30 +1186,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>26.2</v>
       </c>
       <c r="E20" t="n">
-        <v>26.2</v>
+        <v>41.36666666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>24.2</v>
+        <v>40.65442317821228</v>
       </c>
       <c r="G20" t="n">
-        <v>41.36666666666667</v>
+        <v>38.78484664779197</v>
       </c>
       <c r="H20" t="n">
-        <v>40.65442317821228</v>
+        <v>13.76783333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>38.78484664779197</v>
+        <v>31.84833333333333</v>
       </c>
       <c r="J20" t="n">
-        <v>13.76783333333333</v>
-      </c>
-      <c r="K20" t="n">
-        <v>31.84833333333333</v>
-      </c>
-      <c r="L20" t="n">
         <v>1655.175</v>
       </c>
     </row>
@@ -1348,30 +1224,24 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>28.26666666666667</v>
+        <v>41.63333333333333</v>
       </c>
       <c r="F21" t="n">
-        <v>26.26666666666667</v>
+        <v>40.69083490644319</v>
       </c>
       <c r="G21" t="n">
-        <v>41.63333333333333</v>
+        <v>38.21043824359887</v>
       </c>
       <c r="H21" t="n">
-        <v>40.69083490644319</v>
+        <v>13.89583333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>38.21043824359887</v>
+        <v>28.35433333333333</v>
       </c>
       <c r="J21" t="n">
-        <v>13.89583333333333</v>
-      </c>
-      <c r="K21" t="n">
-        <v>28.35433333333333</v>
-      </c>
-      <c r="L21" t="n">
         <v>1584.3575</v>
       </c>
     </row>
@@ -1392,30 +1262,24 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="E22" t="n">
-        <v>28.66666666666667</v>
+        <v>47.53333333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>26.66666666666667</v>
+        <v>46.65033016829068</v>
       </c>
       <c r="G22" t="n">
-        <v>47.53333333333333</v>
+        <v>45.4691246897948</v>
       </c>
       <c r="H22" t="n">
-        <v>46.65033016829068</v>
+        <v>15.73933333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>45.4691246897948</v>
+        <v>30.33866666666666</v>
       </c>
       <c r="J22" t="n">
-        <v>15.73933333333333</v>
-      </c>
-      <c r="K22" t="n">
-        <v>30.33866666666666</v>
-      </c>
-      <c r="L22" t="n">
         <v>1901.901333333333</v>
       </c>
     </row>
@@ -1436,30 +1300,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>26.53333333333333</v>
+        <v>41.93333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>24.53333333333333</v>
+        <v>41.47726651542062</v>
       </c>
       <c r="G23" t="n">
-        <v>41.93333333333333</v>
+        <v>39.89162267020546</v>
       </c>
       <c r="H23" t="n">
-        <v>41.47726651542062</v>
+        <v>14.38</v>
       </c>
       <c r="I23" t="n">
-        <v>39.89162267020546</v>
+        <v>31.94933333333333</v>
       </c>
       <c r="J23" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="K23" t="n">
-        <v>31.94933333333333</v>
-      </c>
-      <c r="L23" t="n">
         <v>1806.83</v>
       </c>
     </row>
@@ -1480,30 +1338,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>30.26666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>30.26666666666667</v>
+        <v>34.8</v>
       </c>
       <c r="F24" t="n">
-        <v>28.26666666666667</v>
+        <v>33.97252702246527</v>
       </c>
       <c r="G24" t="n">
-        <v>34.8</v>
+        <v>32.82711268287716</v>
       </c>
       <c r="H24" t="n">
-        <v>33.97252702246527</v>
+        <v>11.28</v>
       </c>
       <c r="I24" t="n">
-        <v>32.82711268287716</v>
+        <v>29.66333333333333</v>
       </c>
       <c r="J24" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="K24" t="n">
-        <v>29.66333333333333</v>
-      </c>
-      <c r="L24" t="n">
         <v>1329.719333333333</v>
       </c>
     </row>
@@ -1524,30 +1376,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>29.06666666666667</v>
+        <v>37.8</v>
       </c>
       <c r="F25" t="n">
-        <v>27.06666666666667</v>
+        <v>37.54860899871579</v>
       </c>
       <c r="G25" t="n">
-        <v>37.8</v>
+        <v>36.59720718519655</v>
       </c>
       <c r="H25" t="n">
-        <v>37.54860899871579</v>
+        <v>12.24066666666667</v>
       </c>
       <c r="I25" t="n">
-        <v>36.59720718519655</v>
+        <v>28.04533333333333</v>
       </c>
       <c r="J25" t="n">
-        <v>12.24066666666667</v>
-      </c>
-      <c r="K25" t="n">
-        <v>28.04533333333333</v>
-      </c>
-      <c r="L25" t="n">
         <v>1347.860666666667</v>
       </c>
     </row>
@@ -1568,30 +1414,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>29.9</v>
       </c>
       <c r="E26" t="n">
-        <v>29.9</v>
+        <v>39.75</v>
       </c>
       <c r="F26" t="n">
-        <v>27.9</v>
+        <v>39.3967775281548</v>
       </c>
       <c r="G26" t="n">
-        <v>39.75</v>
+        <v>37.33235087777216</v>
       </c>
       <c r="H26" t="n">
-        <v>39.3967775281548</v>
+        <v>12.67116666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>37.33235087777216</v>
+        <v>25.7315</v>
       </c>
       <c r="J26" t="n">
-        <v>12.67116666666667</v>
-      </c>
-      <c r="K26" t="n">
-        <v>25.7315</v>
-      </c>
-      <c r="L26" t="n">
         <v>1424.270666666667</v>
       </c>
     </row>
@@ -1612,30 +1452,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.666666666666667</v>
+        <v>29.6</v>
       </c>
       <c r="E27" t="n">
-        <v>29.6</v>
+        <v>40.33333333333334</v>
       </c>
       <c r="F27" t="n">
-        <v>26.93333333333333</v>
+        <v>39.42441268042686</v>
       </c>
       <c r="G27" t="n">
-        <v>40.33333333333334</v>
+        <v>36.96908105414823</v>
       </c>
       <c r="H27" t="n">
-        <v>39.42441268042686</v>
+        <v>13.03333333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>36.96908105414823</v>
+        <v>26.87733333333333</v>
       </c>
       <c r="J27" t="n">
-        <v>13.03333333333333</v>
-      </c>
-      <c r="K27" t="n">
-        <v>26.87733333333333</v>
-      </c>
-      <c r="L27" t="n">
         <v>1546.086</v>
       </c>
     </row>
@@ -1656,30 +1490,24 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>30.53333333333333</v>
       </c>
       <c r="E28" t="n">
-        <v>30.53333333333333</v>
+        <v>36.53333333333333</v>
       </c>
       <c r="F28" t="n">
-        <v>28.53333333333333</v>
+        <v>36.36736995743549</v>
       </c>
       <c r="G28" t="n">
-        <v>36.53333333333333</v>
+        <v>35.3708100297284</v>
       </c>
       <c r="H28" t="n">
-        <v>36.36736995743549</v>
+        <v>11.35266666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>35.3708100297284</v>
+        <v>21.85533333333333</v>
       </c>
       <c r="J28" t="n">
-        <v>11.35266666666667</v>
-      </c>
-      <c r="K28" t="n">
-        <v>21.85533333333333</v>
-      </c>
-      <c r="L28" t="n">
         <v>1235.477333333333</v>
       </c>
     </row>
@@ -1700,30 +1528,24 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>28.6</v>
       </c>
       <c r="E29" t="n">
-        <v>28.6</v>
+        <v>41.5</v>
       </c>
       <c r="F29" t="n">
-        <v>26.6</v>
+        <v>41.09868748203535</v>
       </c>
       <c r="G29" t="n">
-        <v>41.5</v>
+        <v>38.3087284838719</v>
       </c>
       <c r="H29" t="n">
-        <v>41.09868748203535</v>
+        <v>13.255</v>
       </c>
       <c r="I29" t="n">
-        <v>38.3087284838719</v>
+        <v>30.94766666666666</v>
       </c>
       <c r="J29" t="n">
-        <v>13.255</v>
-      </c>
-      <c r="K29" t="n">
-        <v>30.94766666666666</v>
-      </c>
-      <c r="L29" t="n">
         <v>1593.982</v>
       </c>
     </row>
@@ -1744,30 +1566,24 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>28.53333333333333</v>
+        <v>36.06666666666667</v>
       </c>
       <c r="F30" t="n">
-        <v>26.53333333333333</v>
+        <v>34.77574752491721</v>
       </c>
       <c r="G30" t="n">
-        <v>36.06666666666667</v>
+        <v>32.80832522446712</v>
       </c>
       <c r="H30" t="n">
-        <v>34.77574752491721</v>
+        <v>11.71933333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>32.80832522446712</v>
+        <v>27.99666666666667</v>
       </c>
       <c r="J30" t="n">
-        <v>11.71933333333333</v>
-      </c>
-      <c r="K30" t="n">
-        <v>27.99666666666667</v>
-      </c>
-      <c r="L30" t="n">
         <v>1418.318666666667</v>
       </c>
     </row>
@@ -1788,30 +1604,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>29.5</v>
       </c>
       <c r="E31" t="n">
-        <v>29.5</v>
+        <v>39.16666666666666</v>
       </c>
       <c r="F31" t="n">
-        <v>27.5</v>
+        <v>38.28144159751991</v>
       </c>
       <c r="G31" t="n">
-        <v>39.16666666666666</v>
+        <v>37.3378840890565</v>
       </c>
       <c r="H31" t="n">
-        <v>38.28144159751991</v>
+        <v>12.76416666666667</v>
       </c>
       <c r="I31" t="n">
-        <v>37.3378840890565</v>
+        <v>28.27516666666666</v>
       </c>
       <c r="J31" t="n">
-        <v>12.76416666666667</v>
-      </c>
-      <c r="K31" t="n">
-        <v>28.27516666666666</v>
-      </c>
-      <c r="L31" t="n">
         <v>1449.993833333333</v>
       </c>
     </row>
@@ -1832,30 +1642,24 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>30.83333333333333</v>
+        <v>39.86666666666667</v>
       </c>
       <c r="F32" t="n">
-        <v>28.83333333333333</v>
+        <v>39.05661896652227</v>
       </c>
       <c r="G32" t="n">
-        <v>39.86666666666667</v>
+        <v>36.81559220257041</v>
       </c>
       <c r="H32" t="n">
-        <v>39.05661896652227</v>
+        <v>13.138</v>
       </c>
       <c r="I32" t="n">
-        <v>36.81559220257041</v>
+        <v>26.49916666666667</v>
       </c>
       <c r="J32" t="n">
-        <v>13.138</v>
-      </c>
-      <c r="K32" t="n">
-        <v>26.49916666666667</v>
-      </c>
-      <c r="L32" t="n">
         <v>1459.802</v>
       </c>
     </row>
@@ -1876,30 +1680,24 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>27.47777777777778</v>
       </c>
       <c r="E33" t="n">
-        <v>27.47777777777778</v>
+        <v>37.85</v>
       </c>
       <c r="F33" t="n">
-        <v>25.47777777777778</v>
+        <v>37.34359528066337</v>
       </c>
       <c r="G33" t="n">
-        <v>37.85</v>
+        <v>35.34223069314348</v>
       </c>
       <c r="H33" t="n">
-        <v>37.34359528066337</v>
+        <v>12.20238888888889</v>
       </c>
       <c r="I33" t="n">
-        <v>35.34223069314348</v>
+        <v>27.27483333333333</v>
       </c>
       <c r="J33" t="n">
-        <v>12.20238888888889</v>
-      </c>
-      <c r="K33" t="n">
-        <v>27.27483333333333</v>
-      </c>
-      <c r="L33" t="n">
         <v>1398.380833333333</v>
       </c>
     </row>
@@ -1920,30 +1718,24 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>29.83333333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>29.83333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="F34" t="n">
-        <v>27.83333333333333</v>
+        <v>36.87583039600676</v>
       </c>
       <c r="G34" t="n">
-        <v>37.5</v>
+        <v>35.84072805130058</v>
       </c>
       <c r="H34" t="n">
-        <v>36.87583039600676</v>
+        <v>11.90033333333333</v>
       </c>
       <c r="I34" t="n">
-        <v>35.84072805130058</v>
+        <v>26.95216666666667</v>
       </c>
       <c r="J34" t="n">
-        <v>11.90033333333333</v>
-      </c>
-      <c r="K34" t="n">
-        <v>26.95216666666667</v>
-      </c>
-      <c r="L34" t="n">
         <v>1323.771666666667</v>
       </c>
     </row>
@@ -1964,30 +1756,24 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>30.53333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>30.53333333333333</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="F35" t="n">
-        <v>28.53333333333333</v>
+        <v>29.21947493326468</v>
       </c>
       <c r="G35" t="n">
-        <v>29.46666666666667</v>
+        <v>28.41220747080558</v>
       </c>
       <c r="H35" t="n">
-        <v>29.21947493326468</v>
+        <v>8.962666666666665</v>
       </c>
       <c r="I35" t="n">
-        <v>28.41220747080558</v>
+        <v>17.938</v>
       </c>
       <c r="J35" t="n">
-        <v>8.962666666666665</v>
-      </c>
-      <c r="K35" t="n">
-        <v>17.938</v>
-      </c>
-      <c r="L35" t="n">
         <v>960.9673333333334</v>
       </c>
     </row>
@@ -2008,30 +1794,24 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.133333333333333</v>
+        <v>22.26666666666667</v>
       </c>
       <c r="E36" t="n">
-        <v>22.26666666666667</v>
+        <v>99.26666666666667</v>
       </c>
       <c r="F36" t="n">
-        <v>20.13333333333334</v>
+        <v>97.31887822601807</v>
       </c>
       <c r="G36" t="n">
-        <v>99.26666666666667</v>
+        <v>91.96472177741157</v>
       </c>
       <c r="H36" t="n">
-        <v>97.31887822601807</v>
+        <v>32.15866666666667</v>
       </c>
       <c r="I36" t="n">
-        <v>91.96472177741157</v>
+        <v>38.096</v>
       </c>
       <c r="J36" t="n">
-        <v>32.15866666666667</v>
-      </c>
-      <c r="K36" t="n">
-        <v>38.096</v>
-      </c>
-      <c r="L36" t="n">
         <v>4508.56</v>
       </c>
     </row>
@@ -2052,30 +1832,24 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>24.26666666666667</v>
       </c>
       <c r="E37" t="n">
-        <v>24.26666666666667</v>
+        <v>84.86666666666666</v>
       </c>
       <c r="F37" t="n">
-        <v>22.26666666666667</v>
+        <v>80.3234547486483</v>
       </c>
       <c r="G37" t="n">
-        <v>84.86666666666666</v>
+        <v>74.31703663558113</v>
       </c>
       <c r="H37" t="n">
-        <v>80.3234547486483</v>
+        <v>27.82</v>
       </c>
       <c r="I37" t="n">
-        <v>74.31703663558113</v>
+        <v>33.18666666666667</v>
       </c>
       <c r="J37" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="K37" t="n">
-        <v>33.18666666666667</v>
-      </c>
-      <c r="L37" t="n">
         <v>3547.028</v>
       </c>
     </row>
@@ -2096,30 +1870,24 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>22.46666666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>22.46666666666667</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>20.46666666666667</v>
+        <v>78.81553942974101</v>
       </c>
       <c r="G38" t="n">
-        <v>82.89999999999999</v>
+        <v>73.78505550808141</v>
       </c>
       <c r="H38" t="n">
-        <v>78.81553942974101</v>
+        <v>26.85816666666667</v>
       </c>
       <c r="I38" t="n">
-        <v>73.78505550808141</v>
+        <v>33.30133333333333</v>
       </c>
       <c r="J38" t="n">
-        <v>26.85816666666667</v>
-      </c>
-      <c r="K38" t="n">
-        <v>33.30133333333333</v>
-      </c>
-      <c r="L38" t="n">
         <v>3829.134166666667</v>
       </c>
     </row>
@@ -2140,30 +1908,24 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2.8</v>
+        <v>25.7</v>
       </c>
       <c r="E39" t="n">
-        <v>25.7</v>
+        <v>83</v>
       </c>
       <c r="F39" t="n">
-        <v>22.9</v>
+        <v>79.20192992067423</v>
       </c>
       <c r="G39" t="n">
-        <v>83</v>
+        <v>77.64824869455431</v>
       </c>
       <c r="H39" t="n">
-        <v>79.20192992067423</v>
+        <v>27.27483333333333</v>
       </c>
       <c r="I39" t="n">
-        <v>77.64824869455431</v>
+        <v>33.35366666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>27.27483333333333</v>
-      </c>
-      <c r="K39" t="n">
-        <v>33.35366666666667</v>
-      </c>
-      <c r="L39" t="n">
         <v>3812.379666666666</v>
       </c>
     </row>
@@ -2184,30 +1946,24 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>23.2</v>
       </c>
       <c r="E40" t="n">
-        <v>23.2</v>
+        <v>90.53333333333335</v>
       </c>
       <c r="F40" t="n">
-        <v>21.2</v>
+        <v>87.72718633472452</v>
       </c>
       <c r="G40" t="n">
-        <v>90.53333333333335</v>
+        <v>81.86383939469557</v>
       </c>
       <c r="H40" t="n">
-        <v>87.72718633472452</v>
+        <v>29.998</v>
       </c>
       <c r="I40" t="n">
-        <v>81.86383939469557</v>
+        <v>36.66933333333333</v>
       </c>
       <c r="J40" t="n">
-        <v>29.998</v>
-      </c>
-      <c r="K40" t="n">
-        <v>36.66933333333333</v>
-      </c>
-      <c r="L40" t="n">
         <v>3992.999333333333</v>
       </c>
     </row>
@@ -2228,30 +1984,24 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.133333333333333</v>
+        <v>21.7</v>
       </c>
       <c r="E41" t="n">
-        <v>21.7</v>
+        <v>91.58333333333333</v>
       </c>
       <c r="F41" t="n">
-        <v>19.56666666666667</v>
+        <v>88.70693836921015</v>
       </c>
       <c r="G41" t="n">
-        <v>91.58333333333333</v>
+        <v>85.21847169061887</v>
       </c>
       <c r="H41" t="n">
-        <v>88.70693836921015</v>
+        <v>30.19916666666667</v>
       </c>
       <c r="I41" t="n">
-        <v>85.21847169061887</v>
+        <v>40.739</v>
       </c>
       <c r="J41" t="n">
-        <v>30.19916666666667</v>
-      </c>
-      <c r="K41" t="n">
-        <v>40.739</v>
-      </c>
-      <c r="L41" t="n">
         <v>4398.954666666667</v>
       </c>
     </row>
@@ -2272,30 +2022,24 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>29.8</v>
       </c>
       <c r="E42" t="n">
-        <v>29.8</v>
+        <v>63.58333333333334</v>
       </c>
       <c r="F42" t="n">
-        <v>27.8</v>
+        <v>62.05620849565557</v>
       </c>
       <c r="G42" t="n">
-        <v>63.58333333333334</v>
+        <v>57.32807691594338</v>
       </c>
       <c r="H42" t="n">
-        <v>62.05620849565557</v>
+        <v>21.11383333333334</v>
       </c>
       <c r="I42" t="n">
-        <v>57.32807691594338</v>
+        <v>35.7765</v>
       </c>
       <c r="J42" t="n">
-        <v>21.11383333333334</v>
-      </c>
-      <c r="K42" t="n">
-        <v>35.7765</v>
-      </c>
-      <c r="L42" t="n">
         <v>2876.293666666667</v>
       </c>
     </row>
@@ -2316,30 +2060,24 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>28.76666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>28.76666666666667</v>
+        <v>67.5</v>
       </c>
       <c r="F43" t="n">
-        <v>26.76666666666667</v>
+        <v>65.00381755274279</v>
       </c>
       <c r="G43" t="n">
-        <v>67.5</v>
+        <v>62.25805444217852</v>
       </c>
       <c r="H43" t="n">
-        <v>65.00381755274279</v>
+        <v>22.2685</v>
       </c>
       <c r="I43" t="n">
-        <v>62.25805444217852</v>
+        <v>28.74866666666667</v>
       </c>
       <c r="J43" t="n">
-        <v>22.2685</v>
-      </c>
-      <c r="K43" t="n">
-        <v>28.74866666666667</v>
-      </c>
-      <c r="L43" t="n">
         <v>2832.712333333333</v>
       </c>
     </row>
@@ -2360,30 +2098,24 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>27.33333333333333</v>
+        <v>70.60000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>25.33333333333333</v>
+        <v>68.58956146112423</v>
       </c>
       <c r="G44" t="n">
-        <v>70.60000000000001</v>
+        <v>64.03754441900804</v>
       </c>
       <c r="H44" t="n">
-        <v>68.58956146112423</v>
+        <v>23.18866666666667</v>
       </c>
       <c r="I44" t="n">
-        <v>64.03754441900804</v>
+        <v>30.72933333333333</v>
       </c>
       <c r="J44" t="n">
-        <v>23.18866666666667</v>
-      </c>
-      <c r="K44" t="n">
-        <v>30.72933333333333</v>
-      </c>
-      <c r="L44" t="n">
         <v>3030.095333333333</v>
       </c>
     </row>
@@ -2404,30 +2136,24 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2.266666666666667</v>
+        <v>24.13333333333334</v>
       </c>
       <c r="E45" t="n">
-        <v>24.13333333333334</v>
+        <v>75.35000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>21.86666666666666</v>
+        <v>73.48879803214156</v>
       </c>
       <c r="G45" t="n">
-        <v>75.35000000000001</v>
+        <v>67.88043579982315</v>
       </c>
       <c r="H45" t="n">
-        <v>73.48879803214156</v>
+        <v>24.18333333333334</v>
       </c>
       <c r="I45" t="n">
-        <v>67.88043579982315</v>
+        <v>384803.8405</v>
       </c>
       <c r="J45" t="n">
-        <v>24.18333333333334</v>
-      </c>
-      <c r="K45" t="n">
-        <v>384803.8405</v>
-      </c>
-      <c r="L45" t="n">
         <v>3464.701</v>
       </c>
     </row>
@@ -2448,30 +2174,24 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.222222222222222</v>
+        <v>28.44444444444444</v>
       </c>
       <c r="E46" t="n">
-        <v>28.44444444444444</v>
+        <v>75.11111111111111</v>
       </c>
       <c r="F46" t="n">
-        <v>26.22222222222222</v>
+        <v>72.11609694088077</v>
       </c>
       <c r="G46" t="n">
-        <v>75.11111111111111</v>
+        <v>67.43126354238325</v>
       </c>
       <c r="H46" t="n">
-        <v>72.11609694088077</v>
+        <v>24.70666666666667</v>
       </c>
       <c r="I46" t="n">
-        <v>67.43126354238325</v>
+        <v>29.77888888888889</v>
       </c>
       <c r="J46" t="n">
-        <v>24.70666666666667</v>
-      </c>
-      <c r="K46" t="n">
-        <v>29.77888888888889</v>
-      </c>
-      <c r="L46" t="n">
         <v>3038.667777777777</v>
       </c>
     </row>
@@ -2492,30 +2212,24 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.266666666666667</v>
+        <v>25.46666666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>25.46666666666667</v>
+        <v>70.46666666666667</v>
       </c>
       <c r="F47" t="n">
-        <v>23.2</v>
+        <v>68.26257854830872</v>
       </c>
       <c r="G47" t="n">
-        <v>70.46666666666667</v>
+        <v>63.60925383726709</v>
       </c>
       <c r="H47" t="n">
-        <v>68.26257854830872</v>
+        <v>22.73</v>
       </c>
       <c r="I47" t="n">
-        <v>63.60925383726709</v>
+        <v>32.72733333333333</v>
       </c>
       <c r="J47" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="K47" t="n">
-        <v>32.72733333333333</v>
-      </c>
-      <c r="L47" t="n">
         <v>3116.744666666667</v>
       </c>
     </row>
@@ -2536,30 +2250,24 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2.266666666666667</v>
+        <v>27.06666666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>27.06666666666667</v>
+        <v>78.93333333333332</v>
       </c>
       <c r="F48" t="n">
-        <v>24.8</v>
+        <v>76.72314984128339</v>
       </c>
       <c r="G48" t="n">
-        <v>78.93333333333332</v>
+        <v>70.42950271677783</v>
       </c>
       <c r="H48" t="n">
-        <v>76.72314984128339</v>
+        <v>24.582</v>
       </c>
       <c r="I48" t="n">
-        <v>70.42950271677783</v>
+        <v>28.852</v>
       </c>
       <c r="J48" t="n">
-        <v>24.582</v>
-      </c>
-      <c r="K48" t="n">
-        <v>28.852</v>
-      </c>
-      <c r="L48" t="n">
         <v>3251.739333333333</v>
       </c>
     </row>
@@ -2580,30 +2288,24 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>25.43333333333333</v>
       </c>
       <c r="E49" t="n">
-        <v>25.43333333333333</v>
+        <v>76.85000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>23.43333333333333</v>
+        <v>75.10174389122284</v>
       </c>
       <c r="G49" t="n">
-        <v>76.85000000000001</v>
+        <v>69.09430897140447</v>
       </c>
       <c r="H49" t="n">
-        <v>75.10174389122284</v>
+        <v>24.99883333333333</v>
       </c>
       <c r="I49" t="n">
-        <v>69.09430897140447</v>
+        <v>29.11966666666667</v>
       </c>
       <c r="J49" t="n">
-        <v>24.99883333333333</v>
-      </c>
-      <c r="K49" t="n">
-        <v>29.11966666666667</v>
-      </c>
-      <c r="L49" t="n">
         <v>3239.158</v>
       </c>
     </row>
@@ -2624,30 +2326,24 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2.266666666666667</v>
+        <v>26.03333333333333</v>
       </c>
       <c r="E50" t="n">
-        <v>26.03333333333333</v>
+        <v>79.35000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>23.76666666666667</v>
+        <v>75.92689731485387</v>
       </c>
       <c r="G50" t="n">
-        <v>79.35000000000001</v>
+        <v>70.50912865044471</v>
       </c>
       <c r="H50" t="n">
-        <v>75.92689731485387</v>
+        <v>25.96116666666667</v>
       </c>
       <c r="I50" t="n">
-        <v>70.50912865044471</v>
+        <v>54.661</v>
       </c>
       <c r="J50" t="n">
-        <v>25.96116666666667</v>
-      </c>
-      <c r="K50" t="n">
-        <v>54.661</v>
-      </c>
-      <c r="L50" t="n">
         <v>3678.359166666667</v>
       </c>
     </row>
@@ -2668,30 +2364,24 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2.166666666666667</v>
+        <v>21.5</v>
       </c>
       <c r="E51" t="n">
-        <v>21.5</v>
+        <v>74.5</v>
       </c>
       <c r="F51" t="n">
-        <v>19.33333333333333</v>
+        <v>71.25363106462747</v>
       </c>
       <c r="G51" t="n">
-        <v>74.5</v>
+        <v>67.90288030742759</v>
       </c>
       <c r="H51" t="n">
-        <v>71.25363106462747</v>
+        <v>24.90333333333334</v>
       </c>
       <c r="I51" t="n">
-        <v>67.90288030742759</v>
+        <v>35.88833333333334</v>
       </c>
       <c r="J51" t="n">
-        <v>24.90333333333334</v>
-      </c>
-      <c r="K51" t="n">
-        <v>35.88833333333334</v>
-      </c>
-      <c r="L51" t="n">
         <v>3602.333333333333</v>
       </c>
     </row>
@@ -2712,30 +2402,24 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>23.15555555555556</v>
       </c>
       <c r="E52" t="n">
-        <v>23.15555555555556</v>
+        <v>76.08888888888889</v>
       </c>
       <c r="F52" t="n">
-        <v>21.15555555555556</v>
+        <v>74.5680348208158</v>
       </c>
       <c r="G52" t="n">
-        <v>76.08888888888889</v>
+        <v>68.28419769926664</v>
       </c>
       <c r="H52" t="n">
-        <v>74.5680348208158</v>
+        <v>25.02</v>
       </c>
       <c r="I52" t="n">
-        <v>68.28419769926664</v>
+        <v>34.29377777777778</v>
       </c>
       <c r="J52" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="K52" t="n">
-        <v>34.29377777777778</v>
-      </c>
-      <c r="L52" t="n">
         <v>3066.823555555555</v>
       </c>
     </row>
@@ -2756,30 +2440,24 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>20.63333333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>20.63333333333333</v>
+        <v>88.60000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>18.63333333333333</v>
+        <v>84.53954850357756</v>
       </c>
       <c r="G53" t="n">
-        <v>88.60000000000001</v>
+        <v>76.01304007087504</v>
       </c>
       <c r="H53" t="n">
-        <v>84.53954850357756</v>
+        <v>29.48566666666666</v>
       </c>
       <c r="I53" t="n">
-        <v>76.01304007087504</v>
+        <v>43.57283333333334</v>
       </c>
       <c r="J53" t="n">
-        <v>29.48566666666666</v>
-      </c>
-      <c r="K53" t="n">
-        <v>43.57283333333334</v>
-      </c>
-      <c r="L53" t="n">
         <v>4021.4805</v>
       </c>
     </row>
@@ -2800,30 +2478,24 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="E54" t="n">
-        <v>20.66666666666667</v>
+        <v>83.60000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>18.66666666666667</v>
+        <v>80.43159938491419</v>
       </c>
       <c r="G54" t="n">
-        <v>83.60000000000001</v>
+        <v>74.96986554459228</v>
       </c>
       <c r="H54" t="n">
-        <v>80.43159938491419</v>
+        <v>28.20466666666667</v>
       </c>
       <c r="I54" t="n">
-        <v>74.96986554459228</v>
+        <v>45.40866666666667</v>
       </c>
       <c r="J54" t="n">
-        <v>28.20466666666667</v>
-      </c>
-      <c r="K54" t="n">
-        <v>45.40866666666667</v>
-      </c>
-      <c r="L54" t="n">
         <v>4080.211333333334</v>
       </c>
     </row>
@@ -2844,30 +2516,24 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>21.91111111111111</v>
       </c>
       <c r="E55" t="n">
-        <v>21.91111111111111</v>
+        <v>85.37777777777778</v>
       </c>
       <c r="F55" t="n">
-        <v>19.91111111111111</v>
+        <v>81.03799883578053</v>
       </c>
       <c r="G55" t="n">
-        <v>85.37777777777778</v>
+        <v>74.27501885275701</v>
       </c>
       <c r="H55" t="n">
-        <v>81.03799883578053</v>
+        <v>28.45111111111111</v>
       </c>
       <c r="I55" t="n">
-        <v>74.27501885275701</v>
+        <v>35.95533333333334</v>
       </c>
       <c r="J55" t="n">
-        <v>28.45111111111111</v>
-      </c>
-      <c r="K55" t="n">
-        <v>35.95533333333334</v>
-      </c>
-      <c r="L55" t="n">
         <v>3792.348666666667</v>
       </c>
     </row>
@@ -2888,30 +2554,24 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>23.2</v>
       </c>
       <c r="E56" t="n">
-        <v>23.2</v>
+        <v>88.93333333333334</v>
       </c>
       <c r="F56" t="n">
-        <v>21.2</v>
+        <v>85.78965919162283</v>
       </c>
       <c r="G56" t="n">
-        <v>88.93333333333334</v>
+        <v>76.27685160586083</v>
       </c>
       <c r="H56" t="n">
-        <v>85.78965919162283</v>
+        <v>30.23466666666667</v>
       </c>
       <c r="I56" t="n">
-        <v>76.27685160586083</v>
+        <v>39.82266666666667</v>
       </c>
       <c r="J56" t="n">
-        <v>30.23466666666667</v>
-      </c>
-      <c r="K56" t="n">
-        <v>39.82266666666667</v>
-      </c>
-      <c r="L56" t="n">
         <v>4011.505333333333</v>
       </c>
     </row>
@@ -2932,30 +2592,24 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>18.8</v>
       </c>
       <c r="E57" t="n">
-        <v>18.8</v>
+        <v>80.78333333333333</v>
       </c>
       <c r="F57" t="n">
-        <v>16.8</v>
+        <v>78.33786751170642</v>
       </c>
       <c r="G57" t="n">
-        <v>80.78333333333333</v>
+        <v>71.64922545405928</v>
       </c>
       <c r="H57" t="n">
-        <v>78.33786751170642</v>
+        <v>27.91066666666667</v>
       </c>
       <c r="I57" t="n">
-        <v>71.64922545405928</v>
+        <v>44.62933333333334</v>
       </c>
       <c r="J57" t="n">
-        <v>27.91066666666667</v>
-      </c>
-      <c r="K57" t="n">
-        <v>44.62933333333334</v>
-      </c>
-      <c r="L57" t="n">
         <v>3994.671166666667</v>
       </c>
     </row>
@@ -2976,30 +2630,24 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>22.4</v>
       </c>
       <c r="E58" t="n">
-        <v>22.4</v>
+        <v>89.2</v>
       </c>
       <c r="F58" t="n">
-        <v>20.4</v>
+        <v>84.97943737404925</v>
       </c>
       <c r="G58" t="n">
-        <v>89.2</v>
+        <v>81.50788077322854</v>
       </c>
       <c r="H58" t="n">
-        <v>84.97943737404925</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="I58" t="n">
-        <v>81.50788077322854</v>
+        <v>35.07666666666667</v>
       </c>
       <c r="J58" t="n">
-        <v>29.66666666666667</v>
-      </c>
-      <c r="K58" t="n">
-        <v>35.07666666666667</v>
-      </c>
-      <c r="L58" t="n">
         <v>3756.322</v>
       </c>
     </row>
@@ -3020,30 +2668,24 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>20.8</v>
       </c>
       <c r="E59" t="n">
-        <v>20.8</v>
+        <v>81</v>
       </c>
       <c r="F59" t="n">
-        <v>18.8</v>
+        <v>77.76453296482975</v>
       </c>
       <c r="G59" t="n">
-        <v>81</v>
+        <v>72.28461446972956</v>
       </c>
       <c r="H59" t="n">
-        <v>77.76453296482975</v>
+        <v>27.06066666666667</v>
       </c>
       <c r="I59" t="n">
-        <v>72.28461446972956</v>
+        <v>38.59466666666668</v>
       </c>
       <c r="J59" t="n">
-        <v>27.06066666666667</v>
-      </c>
-      <c r="K59" t="n">
-        <v>38.59466666666668</v>
-      </c>
-      <c r="L59" t="n">
         <v>3600.082</v>
       </c>
     </row>
@@ -3064,30 +2706,24 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>18.8</v>
       </c>
       <c r="E60" t="n">
-        <v>18.8</v>
+        <v>79.95</v>
       </c>
       <c r="F60" t="n">
-        <v>16.8</v>
+        <v>76.62594871133813</v>
       </c>
       <c r="G60" t="n">
-        <v>79.95</v>
+        <v>69.13544892730756</v>
       </c>
       <c r="H60" t="n">
-        <v>76.62594871133813</v>
+        <v>26.88183333333333</v>
       </c>
       <c r="I60" t="n">
-        <v>69.13544892730756</v>
+        <v>40.236</v>
       </c>
       <c r="J60" t="n">
-        <v>26.88183333333333</v>
-      </c>
-      <c r="K60" t="n">
-        <v>40.236</v>
-      </c>
-      <c r="L60" t="n">
         <v>3756.286833333334</v>
       </c>
     </row>
@@ -3108,30 +2744,24 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>22.53333333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>22.53333333333333</v>
+        <v>81.13333333333333</v>
       </c>
       <c r="F61" t="n">
-        <v>20.53333333333333</v>
+        <v>78.53058002428565</v>
       </c>
       <c r="G61" t="n">
-        <v>81.13333333333333</v>
+        <v>72.18096592873748</v>
       </c>
       <c r="H61" t="n">
-        <v>78.53058002428565</v>
+        <v>27.54066666666667</v>
       </c>
       <c r="I61" t="n">
-        <v>72.18096592873748</v>
+        <v>39.79666666666667</v>
       </c>
       <c r="J61" t="n">
-        <v>27.54066666666667</v>
-      </c>
-      <c r="K61" t="n">
-        <v>39.79666666666667</v>
-      </c>
-      <c r="L61" t="n">
         <v>3683.640666666666</v>
       </c>
     </row>
@@ -3152,30 +2782,24 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="E62" t="n">
-        <v>22.33333333333333</v>
+        <v>84.08333333333333</v>
       </c>
       <c r="F62" t="n">
-        <v>20.33333333333333</v>
+        <v>82.08062302135922</v>
       </c>
       <c r="G62" t="n">
-        <v>84.08333333333333</v>
+        <v>72.70885519452649</v>
       </c>
       <c r="H62" t="n">
-        <v>82.08062302135922</v>
+        <v>27.74966666666667</v>
       </c>
       <c r="I62" t="n">
-        <v>72.70885519452649</v>
+        <v>36.66616666666667</v>
       </c>
       <c r="J62" t="n">
-        <v>27.74966666666667</v>
-      </c>
-      <c r="K62" t="n">
-        <v>36.66616666666667</v>
-      </c>
-      <c r="L62" t="n">
         <v>3581.606666666667</v>
       </c>
     </row>
@@ -3196,30 +2820,24 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>21.6</v>
       </c>
       <c r="E63" t="n">
-        <v>21.6</v>
+        <v>79.46666666666667</v>
       </c>
       <c r="F63" t="n">
-        <v>19.6</v>
+        <v>76.76665114205389</v>
       </c>
       <c r="G63" t="n">
-        <v>79.46666666666667</v>
+        <v>68.43064816145905</v>
       </c>
       <c r="H63" t="n">
-        <v>76.76665114205389</v>
+        <v>26.75666666666666</v>
       </c>
       <c r="I63" t="n">
-        <v>68.43064816145905</v>
+        <v>39.37066666666666</v>
       </c>
       <c r="J63" t="n">
-        <v>26.75666666666666</v>
-      </c>
-      <c r="K63" t="n">
-        <v>39.37066666666666</v>
-      </c>
-      <c r="L63" t="n">
         <v>3621.497333333333</v>
       </c>
     </row>
@@ -3240,30 +2858,24 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>22.63333333333334</v>
       </c>
       <c r="E64" t="n">
-        <v>22.63333333333334</v>
+        <v>80.38333333333333</v>
       </c>
       <c r="F64" t="n">
-        <v>20.63333333333334</v>
+        <v>79.14320249479748</v>
       </c>
       <c r="G64" t="n">
-        <v>80.38333333333333</v>
+        <v>71.57817231117451</v>
       </c>
       <c r="H64" t="n">
-        <v>79.14320249479748</v>
+        <v>26.63933333333334</v>
       </c>
       <c r="I64" t="n">
-        <v>71.57817231117451</v>
+        <v>36.25483333333333</v>
       </c>
       <c r="J64" t="n">
-        <v>26.63933333333334</v>
-      </c>
-      <c r="K64" t="n">
-        <v>36.25483333333333</v>
-      </c>
-      <c r="L64" t="n">
         <v>3457.795333333333</v>
       </c>
     </row>
@@ -3284,30 +2896,24 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="E65" t="n">
-        <v>22.66666666666667</v>
+        <v>81</v>
       </c>
       <c r="F65" t="n">
-        <v>20.66666666666667</v>
+        <v>77.46257292160141</v>
       </c>
       <c r="G65" t="n">
-        <v>81</v>
+        <v>70.96533247834684</v>
       </c>
       <c r="H65" t="n">
-        <v>77.46257292160141</v>
+        <v>27.00866666666667</v>
       </c>
       <c r="I65" t="n">
-        <v>70.96533247834684</v>
+        <v>37.78533333333333</v>
       </c>
       <c r="J65" t="n">
-        <v>27.00866666666667</v>
-      </c>
-      <c r="K65" t="n">
-        <v>37.78533333333333</v>
-      </c>
-      <c r="L65" t="n">
         <v>3556.918</v>
       </c>
     </row>
@@ -3328,30 +2934,24 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>19.86666666666667</v>
       </c>
       <c r="E66" t="n">
-        <v>19.86666666666667</v>
+        <v>82.3</v>
       </c>
       <c r="F66" t="n">
-        <v>17.86666666666667</v>
+        <v>79.92414069210695</v>
       </c>
       <c r="G66" t="n">
-        <v>82.3</v>
+        <v>70.94910584287184</v>
       </c>
       <c r="H66" t="n">
-        <v>79.92414069210695</v>
+        <v>27.35233333333333</v>
       </c>
       <c r="I66" t="n">
-        <v>70.94910584287184</v>
+        <v>39.30583333333333</v>
       </c>
       <c r="J66" t="n">
-        <v>27.35233333333333</v>
-      </c>
-      <c r="K66" t="n">
-        <v>39.30583333333333</v>
-      </c>
-      <c r="L66" t="n">
         <v>3727.332666666667</v>
       </c>
     </row>
@@ -3372,30 +2972,24 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>20.8</v>
       </c>
       <c r="E67" t="n">
-        <v>20.8</v>
+        <v>80.8</v>
       </c>
       <c r="F67" t="n">
-        <v>18.8</v>
+        <v>77.48625438121108</v>
       </c>
       <c r="G67" t="n">
-        <v>80.8</v>
+        <v>70.31087304120634</v>
       </c>
       <c r="H67" t="n">
-        <v>77.48625438121108</v>
+        <v>27.34733333333334</v>
       </c>
       <c r="I67" t="n">
-        <v>70.31087304120634</v>
+        <v>40.12933333333334</v>
       </c>
       <c r="J67" t="n">
-        <v>27.34733333333334</v>
-      </c>
-      <c r="K67" t="n">
-        <v>40.12933333333334</v>
-      </c>
-      <c r="L67" t="n">
         <v>3707.355333333333</v>
       </c>
     </row>
@@ -3416,30 +3010,24 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>24.3</v>
       </c>
       <c r="E68" t="n">
-        <v>24.3</v>
+        <v>77.98333333333333</v>
       </c>
       <c r="F68" t="n">
-        <v>22.3</v>
+        <v>75.55410925023875</v>
       </c>
       <c r="G68" t="n">
-        <v>77.98333333333333</v>
+        <v>70.44368373505968</v>
       </c>
       <c r="H68" t="n">
-        <v>75.55410925023875</v>
+        <v>26.3605</v>
       </c>
       <c r="I68" t="n">
-        <v>70.44368373505968</v>
+        <v>38.04983333333333</v>
       </c>
       <c r="J68" t="n">
-        <v>26.3605</v>
-      </c>
-      <c r="K68" t="n">
-        <v>38.04983333333333</v>
-      </c>
-      <c r="L68" t="n">
         <v>3306.247833333333</v>
       </c>
     </row>
@@ -3460,30 +3048,24 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>31.43333333333333</v>
       </c>
       <c r="E69" t="n">
-        <v>31.43333333333333</v>
+        <v>60.45</v>
       </c>
       <c r="F69" t="n">
-        <v>29.43333333333333</v>
+        <v>59.35089637398121</v>
       </c>
       <c r="G69" t="n">
-        <v>60.45</v>
+        <v>57.39652515311019</v>
       </c>
       <c r="H69" t="n">
-        <v>59.35089637398121</v>
+        <v>19.29366666666667</v>
       </c>
       <c r="I69" t="n">
-        <v>57.39652515311019</v>
+        <v>22.49733333333333</v>
       </c>
       <c r="J69" t="n">
-        <v>19.29366666666667</v>
-      </c>
-      <c r="K69" t="n">
-        <v>22.49733333333333</v>
-      </c>
-      <c r="L69" t="n">
         <v>1915.662833333333</v>
       </c>
     </row>
@@ -3504,30 +3086,24 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="E70" t="n">
-        <v>20.66666666666667</v>
+        <v>72.66666666666667</v>
       </c>
       <c r="F70" t="n">
-        <v>18.66666666666667</v>
+        <v>69.73808261435397</v>
       </c>
       <c r="G70" t="n">
-        <v>72.66666666666667</v>
+        <v>65.18739300629458</v>
       </c>
       <c r="H70" t="n">
-        <v>69.73808261435397</v>
+        <v>23.02733333333333</v>
       </c>
       <c r="I70" t="n">
-        <v>65.18739300629458</v>
+        <v>35.82533333333333</v>
       </c>
       <c r="J70" t="n">
-        <v>23.02733333333333</v>
-      </c>
-      <c r="K70" t="n">
-        <v>35.82533333333333</v>
-      </c>
-      <c r="L70" t="n">
         <v>2893.214666666667</v>
       </c>
     </row>
@@ -3548,30 +3124,24 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>24.43333333333333</v>
       </c>
       <c r="E71" t="n">
-        <v>24.43333333333333</v>
+        <v>60.96666666666666</v>
       </c>
       <c r="F71" t="n">
-        <v>22.43333333333333</v>
+        <v>59.10669911977612</v>
       </c>
       <c r="G71" t="n">
-        <v>60.96666666666666</v>
+        <v>57.39699174732311</v>
       </c>
       <c r="H71" t="n">
-        <v>59.10669911977612</v>
+        <v>18.859</v>
       </c>
       <c r="I71" t="n">
-        <v>57.39699174732311</v>
+        <v>31.16516666666666</v>
       </c>
       <c r="J71" t="n">
-        <v>18.859</v>
-      </c>
-      <c r="K71" t="n">
-        <v>31.16516666666666</v>
-      </c>
-      <c r="L71" t="n">
         <v>2346.368666666667</v>
       </c>
     </row>
@@ -3592,30 +3162,24 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>20.62222222222222</v>
       </c>
       <c r="E72" t="n">
-        <v>20.62222222222222</v>
+        <v>63.51111111111111</v>
       </c>
       <c r="F72" t="n">
-        <v>18.62222222222222</v>
+        <v>62.3496468055446</v>
       </c>
       <c r="G72" t="n">
-        <v>63.51111111111111</v>
+        <v>57.40944334621874</v>
       </c>
       <c r="H72" t="n">
-        <v>62.3496468055446</v>
+        <v>20.21533333333333</v>
       </c>
       <c r="I72" t="n">
-        <v>57.40944334621874</v>
+        <v>37.60044444444444</v>
       </c>
       <c r="J72" t="n">
-        <v>20.21533333333333</v>
-      </c>
-      <c r="K72" t="n">
-        <v>37.60044444444444</v>
-      </c>
-      <c r="L72" t="n">
         <v>2669.390888888889</v>
       </c>
     </row>
@@ -3636,30 +3200,24 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>20.93333333333333</v>
       </c>
       <c r="E73" t="n">
-        <v>20.93333333333333</v>
+        <v>68.53333333333333</v>
       </c>
       <c r="F73" t="n">
-        <v>18.93333333333333</v>
+        <v>66.42214097068572</v>
       </c>
       <c r="G73" t="n">
-        <v>68.53333333333333</v>
+        <v>62.11630600265687</v>
       </c>
       <c r="H73" t="n">
-        <v>66.42214097068572</v>
+        <v>21.63233333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>62.11630600265687</v>
+        <v>35.24483333333333</v>
       </c>
       <c r="J73" t="n">
-        <v>21.63233333333333</v>
-      </c>
-      <c r="K73" t="n">
-        <v>35.24483333333333</v>
-      </c>
-      <c r="L73" t="n">
         <v>2787.589333333333</v>
       </c>
     </row>
@@ -3680,30 +3238,24 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="E74" t="n">
-        <v>26.53333333333333</v>
+        <v>60.15</v>
       </c>
       <c r="F74" t="n">
-        <v>24.53333333333333</v>
+        <v>59.58655089832959</v>
       </c>
       <c r="G74" t="n">
-        <v>60.15</v>
+        <v>56.68854672823742</v>
       </c>
       <c r="H74" t="n">
-        <v>59.58655089832959</v>
+        <v>19.03633333333334</v>
       </c>
       <c r="I74" t="n">
-        <v>56.68854672823742</v>
+        <v>29.41866666666667</v>
       </c>
       <c r="J74" t="n">
-        <v>19.03633333333334</v>
-      </c>
-      <c r="K74" t="n">
-        <v>29.41866666666667</v>
-      </c>
-      <c r="L74" t="n">
         <v>2173.453</v>
       </c>
     </row>
@@ -3724,30 +3276,24 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>19.06666666666667</v>
       </c>
       <c r="E75" t="n">
-        <v>19.06666666666667</v>
+        <v>71.13333333333333</v>
       </c>
       <c r="F75" t="n">
-        <v>17.06666666666667</v>
+        <v>69.18408606727195</v>
       </c>
       <c r="G75" t="n">
-        <v>71.13333333333333</v>
+        <v>64.36225365077649</v>
       </c>
       <c r="H75" t="n">
-        <v>69.18408606727195</v>
+        <v>22.37133333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>64.36225365077649</v>
+        <v>34.728</v>
       </c>
       <c r="J75" t="n">
-        <v>22.37133333333333</v>
-      </c>
-      <c r="K75" t="n">
-        <v>34.728</v>
-      </c>
-      <c r="L75" t="n">
         <v>2957.06</v>
       </c>
     </row>
@@ -3768,30 +3314,24 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2.133333333333333</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="E76" t="n">
-        <v>23.33333333333333</v>
+        <v>61.13333333333333</v>
       </c>
       <c r="F76" t="n">
-        <v>21.2</v>
+        <v>58.9918120294297</v>
       </c>
       <c r="G76" t="n">
-        <v>61.13333333333333</v>
+        <v>56.96272950102361</v>
       </c>
       <c r="H76" t="n">
-        <v>58.9918120294297</v>
+        <v>19.342</v>
       </c>
       <c r="I76" t="n">
-        <v>56.96272950102361</v>
+        <v>33.02933333333333</v>
       </c>
       <c r="J76" t="n">
-        <v>19.342</v>
-      </c>
-      <c r="K76" t="n">
-        <v>33.02933333333333</v>
-      </c>
-      <c r="L76" t="n">
         <v>2414.722</v>
       </c>
     </row>
@@ -3812,30 +3352,24 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>24.46666666666667</v>
       </c>
       <c r="E77" t="n">
-        <v>24.46666666666667</v>
+        <v>57.06666666666666</v>
       </c>
       <c r="F77" t="n">
-        <v>22.46666666666667</v>
+        <v>54.83986693139897</v>
       </c>
       <c r="G77" t="n">
-        <v>57.06666666666666</v>
+        <v>51.13960479223937</v>
       </c>
       <c r="H77" t="n">
-        <v>54.83986693139897</v>
+        <v>18.119</v>
       </c>
       <c r="I77" t="n">
-        <v>51.13960479223937</v>
+        <v>30.8</v>
       </c>
       <c r="J77" t="n">
-        <v>18.119</v>
-      </c>
-      <c r="K77" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L77" t="n">
         <v>2123.689833333333</v>
       </c>
     </row>
@@ -3856,30 +3390,24 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>22.56666666666667</v>
       </c>
       <c r="E78" t="n">
-        <v>22.56666666666667</v>
+        <v>60.48333333333333</v>
       </c>
       <c r="F78" t="n">
-        <v>20.56666666666667</v>
+        <v>58.15483363535318</v>
       </c>
       <c r="G78" t="n">
-        <v>60.48333333333333</v>
+        <v>54.35035909692161</v>
       </c>
       <c r="H78" t="n">
-        <v>58.15483363535318</v>
+        <v>19.4455</v>
       </c>
       <c r="I78" t="n">
-        <v>54.35035909692161</v>
+        <v>35.30633333333333</v>
       </c>
       <c r="J78" t="n">
-        <v>19.4455</v>
-      </c>
-      <c r="K78" t="n">
-        <v>35.30633333333333</v>
-      </c>
-      <c r="L78" t="n">
         <v>2508.3215</v>
       </c>
     </row>
@@ -3900,30 +3428,24 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>21.36666666666666</v>
       </c>
       <c r="E79" t="n">
-        <v>21.36666666666666</v>
+        <v>53.25</v>
       </c>
       <c r="F79" t="n">
-        <v>19.36666666666667</v>
+        <v>52.08327860093621</v>
       </c>
       <c r="G79" t="n">
-        <v>53.25</v>
+        <v>49.42754122796644</v>
       </c>
       <c r="H79" t="n">
-        <v>52.08327860093621</v>
+        <v>16.948</v>
       </c>
       <c r="I79" t="n">
-        <v>49.42754122796644</v>
+        <v>34.88916666666667</v>
       </c>
       <c r="J79" t="n">
-        <v>16.948</v>
-      </c>
-      <c r="K79" t="n">
-        <v>34.88916666666667</v>
-      </c>
-      <c r="L79" t="n">
         <v>2149.539666666667</v>
       </c>
     </row>
@@ -3944,30 +3466,24 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>25.5</v>
       </c>
       <c r="E80" t="n">
-        <v>25.5</v>
+        <v>57.9</v>
       </c>
       <c r="F80" t="n">
-        <v>23.5</v>
+        <v>55.93500013772874</v>
       </c>
       <c r="G80" t="n">
-        <v>57.9</v>
+        <v>53.60682290847701</v>
       </c>
       <c r="H80" t="n">
-        <v>55.93500013772874</v>
+        <v>18.56966666666667</v>
       </c>
       <c r="I80" t="n">
-        <v>53.60682290847701</v>
+        <v>32.022</v>
       </c>
       <c r="J80" t="n">
-        <v>18.56966666666667</v>
-      </c>
-      <c r="K80" t="n">
-        <v>32.022</v>
-      </c>
-      <c r="L80" t="n">
         <v>2194.6015</v>
       </c>
     </row>
@@ -3988,30 +3504,24 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E81" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F81" t="n">
-        <v>21</v>
+        <v>65.3186979316705</v>
       </c>
       <c r="G81" t="n">
-        <v>68</v>
+        <v>61.17973243854885</v>
       </c>
       <c r="H81" t="n">
-        <v>65.3186979316705</v>
+        <v>21.5005</v>
       </c>
       <c r="I81" t="n">
-        <v>61.17973243854885</v>
+        <v>34.39566666666667</v>
       </c>
       <c r="J81" t="n">
-        <v>21.5005</v>
-      </c>
-      <c r="K81" t="n">
-        <v>34.39566666666667</v>
-      </c>
-      <c r="L81" t="n">
         <v>2779.012666666667</v>
       </c>
     </row>
@@ -4032,30 +3542,24 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>24.53333333333333</v>
       </c>
       <c r="E82" t="n">
-        <v>24.53333333333333</v>
+        <v>56.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>22.53333333333333</v>
+        <v>54.67383168005256</v>
       </c>
       <c r="G82" t="n">
-        <v>56.40000000000001</v>
+        <v>51.17435397416242</v>
       </c>
       <c r="H82" t="n">
-        <v>54.67383168005256</v>
+        <v>18.08533333333333</v>
       </c>
       <c r="I82" t="n">
-        <v>51.17435397416242</v>
+        <v>32.50266666666667</v>
       </c>
       <c r="J82" t="n">
-        <v>18.08533333333333</v>
-      </c>
-      <c r="K82" t="n">
-        <v>32.50266666666667</v>
-      </c>
-      <c r="L82" t="n">
         <v>2151.464</v>
       </c>
     </row>
@@ -4076,30 +3580,24 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>25.53333333333333</v>
       </c>
       <c r="E83" t="n">
-        <v>25.53333333333333</v>
+        <v>61.9</v>
       </c>
       <c r="F83" t="n">
-        <v>23.53333333333333</v>
+        <v>59.96353627992578</v>
       </c>
       <c r="G83" t="n">
-        <v>61.9</v>
+        <v>56.84167115292117</v>
       </c>
       <c r="H83" t="n">
-        <v>59.96353627992578</v>
+        <v>19.2595</v>
       </c>
       <c r="I83" t="n">
-        <v>56.84167115292117</v>
+        <v>-126788.3926666667</v>
       </c>
       <c r="J83" t="n">
-        <v>19.2595</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-126788.3926666667</v>
-      </c>
-      <c r="L83" t="n">
         <v>2282.429</v>
       </c>
     </row>
@@ -4120,30 +3618,24 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E84" t="n">
-        <v>24</v>
+        <v>64.2</v>
       </c>
       <c r="F84" t="n">
-        <v>22</v>
+        <v>61.83464937782679</v>
       </c>
       <c r="G84" t="n">
-        <v>64.2</v>
+        <v>58.89906483830288</v>
       </c>
       <c r="H84" t="n">
-        <v>61.83464937782679</v>
+        <v>20.18133333333333</v>
       </c>
       <c r="I84" t="n">
-        <v>58.89906483830288</v>
+        <v>37.982</v>
       </c>
       <c r="J84" t="n">
-        <v>20.18133333333333</v>
-      </c>
-      <c r="K84" t="n">
-        <v>37.982</v>
-      </c>
-      <c r="L84" t="n">
         <v>2539.41</v>
       </c>
     </row>
@@ -4164,30 +3656,24 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E85" t="n">
-        <v>26</v>
+        <v>55.53333333333333</v>
       </c>
       <c r="F85" t="n">
-        <v>24</v>
+        <v>53.26589881758044</v>
       </c>
       <c r="G85" t="n">
-        <v>55.53333333333333</v>
+        <v>49.50108994856301</v>
       </c>
       <c r="H85" t="n">
-        <v>53.26589881758044</v>
+        <v>17.75133333333333</v>
       </c>
       <c r="I85" t="n">
-        <v>49.50108994856301</v>
+        <v>30.32666666666667</v>
       </c>
       <c r="J85" t="n">
-        <v>17.75133333333333</v>
-      </c>
-      <c r="K85" t="n">
-        <v>30.32666666666667</v>
-      </c>
-      <c r="L85" t="n">
         <v>2030.336666666667</v>
       </c>
     </row>
@@ -4208,30 +3694,24 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2.166666666666667</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="E86" t="n">
-        <v>28.33333333333333</v>
+        <v>43.51666666666667</v>
       </c>
       <c r="F86" t="n">
-        <v>26.16666666666667</v>
+        <v>42.8972160624399</v>
       </c>
       <c r="G86" t="n">
-        <v>43.51666666666667</v>
+        <v>39.36714283519512</v>
       </c>
       <c r="H86" t="n">
-        <v>42.8972160624399</v>
+        <v>13.44816666666667</v>
       </c>
       <c r="I86" t="n">
-        <v>39.36714283519512</v>
+        <v>23.0555</v>
       </c>
       <c r="J86" t="n">
-        <v>13.44816666666667</v>
-      </c>
-      <c r="K86" t="n">
-        <v>23.0555</v>
-      </c>
-      <c r="L86" t="n">
         <v>1533.356333333333</v>
       </c>
     </row>
@@ -4252,30 +3732,24 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="E87" t="n">
-        <v>27.33333333333333</v>
+        <v>48.4</v>
       </c>
       <c r="F87" t="n">
-        <v>25.33333333333333</v>
+        <v>47.93063495672165</v>
       </c>
       <c r="G87" t="n">
-        <v>48.4</v>
+        <v>46.51901729985828</v>
       </c>
       <c r="H87" t="n">
-        <v>47.93063495672165</v>
+        <v>15.73133333333333</v>
       </c>
       <c r="I87" t="n">
-        <v>46.51901729985828</v>
+        <v>28.21533333333333</v>
       </c>
       <c r="J87" t="n">
-        <v>15.73133333333333</v>
-      </c>
-      <c r="K87" t="n">
-        <v>28.21533333333333</v>
-      </c>
-      <c r="L87" t="n">
         <v>1850.263333333333</v>
       </c>
     </row>
@@ -4296,30 +3770,24 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>28.13333333333334</v>
       </c>
       <c r="E88" t="n">
-        <v>28.13333333333334</v>
+        <v>43.46666666666667</v>
       </c>
       <c r="F88" t="n">
-        <v>26.13333333333334</v>
+        <v>42.6702013760144</v>
       </c>
       <c r="G88" t="n">
-        <v>43.46666666666667</v>
+        <v>41.67400034348493</v>
       </c>
       <c r="H88" t="n">
-        <v>42.6702013760144</v>
+        <v>14.358</v>
       </c>
       <c r="I88" t="n">
-        <v>41.67400034348493</v>
+        <v>28.65866666666667</v>
       </c>
       <c r="J88" t="n">
-        <v>14.358</v>
-      </c>
-      <c r="K88" t="n">
-        <v>28.65866666666667</v>
-      </c>
-      <c r="L88" t="n">
         <v>1694.862</v>
       </c>
     </row>
@@ -4340,30 +3808,24 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>27.2</v>
       </c>
       <c r="E89" t="n">
-        <v>27.2</v>
+        <v>48.4</v>
       </c>
       <c r="F89" t="n">
-        <v>25.2</v>
+        <v>47.97422990245213</v>
       </c>
       <c r="G89" t="n">
-        <v>48.4</v>
+        <v>46.88539145170507</v>
       </c>
       <c r="H89" t="n">
-        <v>47.97422990245213</v>
+        <v>16.08</v>
       </c>
       <c r="I89" t="n">
-        <v>46.88539145170507</v>
+        <v>31.91533333333333</v>
       </c>
       <c r="J89" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="K89" t="n">
-        <v>31.91533333333333</v>
-      </c>
-      <c r="L89" t="n">
         <v>1943.288666666667</v>
       </c>
     </row>
@@ -4384,30 +3846,24 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="E90" t="n">
-        <v>24.73333333333333</v>
+        <v>46.25</v>
       </c>
       <c r="F90" t="n">
-        <v>22.73333333333333</v>
+        <v>45.32450223969855</v>
       </c>
       <c r="G90" t="n">
-        <v>46.25</v>
+        <v>42.79865269600483</v>
       </c>
       <c r="H90" t="n">
-        <v>45.32450223969855</v>
+        <v>15.5335</v>
       </c>
       <c r="I90" t="n">
-        <v>42.79865269600483</v>
+        <v>33.77083333333334</v>
       </c>
       <c r="J90" t="n">
-        <v>15.5335</v>
-      </c>
-      <c r="K90" t="n">
-        <v>33.77083333333334</v>
-      </c>
-      <c r="L90" t="n">
         <v>1957.886</v>
       </c>
     </row>
@@ -4428,30 +3884,24 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="E91" t="n">
-        <v>28.26666666666667</v>
+        <v>45.46666666666666</v>
       </c>
       <c r="F91" t="n">
-        <v>26.26666666666667</v>
+        <v>44.82869487009096</v>
       </c>
       <c r="G91" t="n">
-        <v>45.46666666666666</v>
+        <v>43.91979445020945</v>
       </c>
       <c r="H91" t="n">
-        <v>44.82869487009096</v>
+        <v>14.89933333333333</v>
       </c>
       <c r="I91" t="n">
-        <v>43.91979445020945</v>
+        <v>28.08933333333333</v>
       </c>
       <c r="J91" t="n">
-        <v>14.89933333333333</v>
-      </c>
-      <c r="K91" t="n">
-        <v>28.08933333333333</v>
-      </c>
-      <c r="L91" t="n">
         <v>1640.806666666667</v>
       </c>
     </row>
@@ -4472,30 +3922,24 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>26.6</v>
       </c>
       <c r="E92" t="n">
-        <v>26.6</v>
+        <v>46.5</v>
       </c>
       <c r="F92" t="n">
-        <v>24.6</v>
+        <v>45.92922463910014</v>
       </c>
       <c r="G92" t="n">
-        <v>46.5</v>
+        <v>44.78575326971249</v>
       </c>
       <c r="H92" t="n">
-        <v>45.92922463910014</v>
+        <v>15.09666666666667</v>
       </c>
       <c r="I92" t="n">
-        <v>44.78575326971249</v>
+        <v>29.58033333333333</v>
       </c>
       <c r="J92" t="n">
-        <v>15.09666666666667</v>
-      </c>
-      <c r="K92" t="n">
-        <v>29.58033333333333</v>
-      </c>
-      <c r="L92" t="n">
         <v>1841.982166666666</v>
       </c>
     </row>
@@ -4516,30 +3960,24 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>29.6</v>
       </c>
       <c r="E93" t="n">
-        <v>29.6</v>
+        <v>43</v>
       </c>
       <c r="F93" t="n">
-        <v>27.6</v>
+        <v>42.68669945891108</v>
       </c>
       <c r="G93" t="n">
-        <v>43</v>
+        <v>40.42481503081314</v>
       </c>
       <c r="H93" t="n">
-        <v>42.68669945891108</v>
+        <v>13.998</v>
       </c>
       <c r="I93" t="n">
-        <v>40.42481503081314</v>
+        <v>27.10666666666667</v>
       </c>
       <c r="J93" t="n">
-        <v>13.998</v>
-      </c>
-      <c r="K93" t="n">
-        <v>27.10666666666667</v>
-      </c>
-      <c r="L93" t="n">
         <v>1532.440666666667</v>
       </c>
     </row>
@@ -4560,30 +3998,24 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>28.93333333333333</v>
       </c>
       <c r="E94" t="n">
-        <v>28.93333333333333</v>
+        <v>42.46666666666667</v>
       </c>
       <c r="F94" t="n">
-        <v>26.93333333333333</v>
+        <v>41.90372639488658</v>
       </c>
       <c r="G94" t="n">
-        <v>42.46666666666667</v>
+        <v>41.05926527640194</v>
       </c>
       <c r="H94" t="n">
-        <v>41.90372639488658</v>
+        <v>13.62466666666667</v>
       </c>
       <c r="I94" t="n">
-        <v>41.05926527640194</v>
+        <v>28.04933333333333</v>
       </c>
       <c r="J94" t="n">
-        <v>13.62466666666667</v>
-      </c>
-      <c r="K94" t="n">
-        <v>28.04933333333333</v>
-      </c>
-      <c r="L94" t="n">
         <v>1604.393333333333</v>
       </c>
     </row>
@@ -4604,30 +4036,24 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>29.6</v>
       </c>
       <c r="E95" t="n">
-        <v>29.6</v>
+        <v>42.4</v>
       </c>
       <c r="F95" t="n">
-        <v>27.6</v>
+        <v>41.6705042091497</v>
       </c>
       <c r="G95" t="n">
-        <v>42.4</v>
+        <v>40.6000551447742</v>
       </c>
       <c r="H95" t="n">
-        <v>41.6705042091497</v>
+        <v>13.618</v>
       </c>
       <c r="I95" t="n">
-        <v>40.6000551447742</v>
+        <v>25.38733333333333</v>
       </c>
       <c r="J95" t="n">
-        <v>13.618</v>
-      </c>
-      <c r="K95" t="n">
-        <v>25.38733333333333</v>
-      </c>
-      <c r="L95" t="n">
         <v>1448.080666666667</v>
       </c>
     </row>
@@ -4648,30 +4074,24 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>25.06666666666666</v>
       </c>
       <c r="E96" t="n">
-        <v>25.06666666666666</v>
+        <v>42.86666666666667</v>
       </c>
       <c r="F96" t="n">
-        <v>23.06666666666666</v>
+        <v>42.00376236628329</v>
       </c>
       <c r="G96" t="n">
-        <v>42.86666666666667</v>
+        <v>40.24159733517686</v>
       </c>
       <c r="H96" t="n">
-        <v>42.00376236628329</v>
+        <v>14.454</v>
       </c>
       <c r="I96" t="n">
-        <v>40.24159733517686</v>
+        <v>33.21333333333333</v>
       </c>
       <c r="J96" t="n">
-        <v>14.454</v>
-      </c>
-      <c r="K96" t="n">
-        <v>33.21333333333333</v>
-      </c>
-      <c r="L96" t="n">
         <v>1936.22</v>
       </c>
     </row>
@@ -4692,30 +4112,24 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>27.73333333333333</v>
       </c>
       <c r="E97" t="n">
-        <v>27.73333333333333</v>
+        <v>41.6</v>
       </c>
       <c r="F97" t="n">
-        <v>25.73333333333333</v>
+        <v>41.04627198736539</v>
       </c>
       <c r="G97" t="n">
-        <v>41.6</v>
+        <v>39.98601807470013</v>
       </c>
       <c r="H97" t="n">
-        <v>41.04627198736539</v>
+        <v>13.41666666666667</v>
       </c>
       <c r="I97" t="n">
-        <v>39.98601807470013</v>
+        <v>28.31244444444445</v>
       </c>
       <c r="J97" t="n">
-        <v>13.41666666666667</v>
-      </c>
-      <c r="K97" t="n">
-        <v>28.31244444444445</v>
-      </c>
-      <c r="L97" t="n">
         <v>1662.597111111111</v>
       </c>
     </row>
@@ -4736,30 +4150,24 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>29.03333333333333</v>
       </c>
       <c r="E98" t="n">
-        <v>29.03333333333333</v>
+        <v>45.86666666666667</v>
       </c>
       <c r="F98" t="n">
-        <v>27.03333333333333</v>
+        <v>45.38231568525659</v>
       </c>
       <c r="G98" t="n">
-        <v>45.86666666666667</v>
+        <v>43.72346684683767</v>
       </c>
       <c r="H98" t="n">
-        <v>45.38231568525659</v>
+        <v>15.07883333333333</v>
       </c>
       <c r="I98" t="n">
-        <v>43.72346684683767</v>
+        <v>30.38666666666667</v>
       </c>
       <c r="J98" t="n">
-        <v>15.07883333333333</v>
-      </c>
-      <c r="K98" t="n">
-        <v>30.38666666666667</v>
-      </c>
-      <c r="L98" t="n">
         <v>1662.511666666667</v>
       </c>
     </row>
@@ -4780,30 +4188,24 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>30.13333333333334</v>
       </c>
       <c r="E99" t="n">
-        <v>30.13333333333334</v>
+        <v>41.95</v>
       </c>
       <c r="F99" t="n">
-        <v>28.13333333333334</v>
+        <v>40.81549550128934</v>
       </c>
       <c r="G99" t="n">
-        <v>41.95</v>
+        <v>40.4485493903177</v>
       </c>
       <c r="H99" t="n">
-        <v>40.81549550128934</v>
+        <v>13.61166666666667</v>
       </c>
       <c r="I99" t="n">
-        <v>40.4485493903177</v>
+        <v>27.5075</v>
       </c>
       <c r="J99" t="n">
-        <v>13.61166666666667</v>
-      </c>
-      <c r="K99" t="n">
-        <v>27.5075</v>
-      </c>
-      <c r="L99" t="n">
         <v>1510.1865</v>
       </c>
     </row>
@@ -4824,30 +4226,24 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>31.2</v>
       </c>
       <c r="E100" t="n">
-        <v>31.2</v>
+        <v>41.91666666666666</v>
       </c>
       <c r="F100" t="n">
-        <v>29.2</v>
+        <v>40.98424187912538</v>
       </c>
       <c r="G100" t="n">
-        <v>41.91666666666666</v>
+        <v>39.5184858911814</v>
       </c>
       <c r="H100" t="n">
-        <v>40.98424187912538</v>
+        <v>13.62983333333333</v>
       </c>
       <c r="I100" t="n">
-        <v>39.5184858911814</v>
+        <v>24.61733333333333</v>
       </c>
       <c r="J100" t="n">
-        <v>13.62983333333333</v>
-      </c>
-      <c r="K100" t="n">
-        <v>24.61733333333333</v>
-      </c>
-      <c r="L100" t="n">
         <v>1417.9485</v>
       </c>
     </row>
@@ -4868,30 +4264,24 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2.266666666666667</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="E101" t="n">
-        <v>30.66666666666667</v>
+        <v>39.56666666666667</v>
       </c>
       <c r="F101" t="n">
-        <v>28.4</v>
+        <v>39.33345598752363</v>
       </c>
       <c r="G101" t="n">
-        <v>39.56666666666667</v>
+        <v>38.70075568319134</v>
       </c>
       <c r="H101" t="n">
-        <v>39.33345598752363</v>
+        <v>12.66733333333333</v>
       </c>
       <c r="I101" t="n">
-        <v>38.70075568319134</v>
+        <v>24.48183333333333</v>
       </c>
       <c r="J101" t="n">
-        <v>12.66733333333333</v>
-      </c>
-      <c r="K101" t="n">
-        <v>24.48183333333333</v>
-      </c>
-      <c r="L101" t="n">
         <v>1358.7865</v>
       </c>
     </row>
@@ -4912,30 +4302,24 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2.133333333333333</v>
+        <v>28.8</v>
       </c>
       <c r="E102" t="n">
-        <v>28.8</v>
+        <v>42.26666666666667</v>
       </c>
       <c r="F102" t="n">
-        <v>26.66666666666667</v>
+        <v>41.85243323995565</v>
       </c>
       <c r="G102" t="n">
-        <v>42.26666666666667</v>
+        <v>40.06870540846133</v>
       </c>
       <c r="H102" t="n">
-        <v>41.85243323995565</v>
+        <v>13.48133333333333</v>
       </c>
       <c r="I102" t="n">
-        <v>40.06870540846133</v>
+        <v>25.642</v>
       </c>
       <c r="J102" t="n">
-        <v>13.48133333333333</v>
-      </c>
-      <c r="K102" t="n">
-        <v>25.642</v>
-      </c>
-      <c r="L102" t="n">
         <v>1516.314</v>
       </c>
     </row>
@@ -4956,30 +4340,24 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>30.2</v>
       </c>
       <c r="E103" t="n">
-        <v>30.2</v>
+        <v>33.13333333333333</v>
       </c>
       <c r="F103" t="n">
-        <v>28.2</v>
+        <v>32.67404195166328</v>
       </c>
       <c r="G103" t="n">
-        <v>33.13333333333333</v>
+        <v>31.94838541125505</v>
       </c>
       <c r="H103" t="n">
-        <v>32.67404195166328</v>
+        <v>9.628666666666668</v>
       </c>
       <c r="I103" t="n">
-        <v>31.94838541125505</v>
+        <v>18.11983333333333</v>
       </c>
       <c r="J103" t="n">
-        <v>9.628666666666668</v>
-      </c>
-      <c r="K103" t="n">
-        <v>18.11983333333333</v>
-      </c>
-      <c r="L103" t="n">
         <v>937.2171666666668</v>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_MERGED_DATE.xlsx
+++ b/[3] Test Input/RESULTS_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -517,10 +512,7 @@
         <v>9.979000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>22.78366666666667</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1218.541666666667</v>
+        <v>778.7501666666667</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +547,7 @@
         <v>10.74916666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>27.3455</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1315.69</v>
+        <v>832.6171666666665</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +582,7 @@
         <v>10.94666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>26.254</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1233.417333333333</v>
+        <v>812.5733333333333</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +617,7 @@
         <v>10.99533333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>28.0975</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1246.010666666667</v>
+        <v>813.5198333333334</v>
       </c>
     </row>
     <row r="6">
@@ -669,10 +652,7 @@
         <v>10.34533333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>22.80333333333333</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1119.82</v>
+        <v>705.6606666666667</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +687,7 @@
         <v>10.53666666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>29.65016666666667</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1295.411666666667</v>
+        <v>836.3291666666668</v>
       </c>
     </row>
     <row r="8">
@@ -745,10 +722,7 @@
         <v>8.471333333333334</v>
       </c>
       <c r="I8" t="n">
-        <v>18.61733333333333</v>
-      </c>
-      <c r="J8" t="n">
-        <v>901.6393333333332</v>
+        <v>587.5360000000001</v>
       </c>
     </row>
     <row r="9">
@@ -783,10 +757,7 @@
         <v>7.192333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>16.016</v>
-      </c>
-      <c r="J9" t="n">
-        <v>879.5341666666667</v>
+        <v>556.8953333333333</v>
       </c>
     </row>
     <row r="10">
@@ -821,10 +792,7 @@
         <v>7.442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.17666666666667</v>
-      </c>
-      <c r="J10" t="n">
-        <v>909.1833333333333</v>
+        <v>585.3706666666666</v>
       </c>
     </row>
     <row r="11">
@@ -859,10 +827,7 @@
         <v>7.735166666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>18.7295</v>
-      </c>
-      <c r="J11" t="n">
-        <v>885.2536666666665</v>
+        <v>556.8411666666667</v>
       </c>
     </row>
     <row r="12">
@@ -897,10 +862,7 @@
         <v>7.738166666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>21.21483333333333</v>
-      </c>
-      <c r="J12" t="n">
-        <v>947.098</v>
+        <v>630.2831666666667</v>
       </c>
     </row>
     <row r="13">
@@ -935,10 +897,7 @@
         <v>8.011333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>19.10333333333334</v>
-      </c>
-      <c r="J13" t="n">
-        <v>913.6273333333334</v>
+        <v>622.2193333333333</v>
       </c>
     </row>
     <row r="14">
@@ -973,10 +932,7 @@
         <v>9.283333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>21.27966666666667</v>
-      </c>
-      <c r="J14" t="n">
-        <v>969.1013333333334</v>
+        <v>630.0323333333334</v>
       </c>
     </row>
     <row r="15">
@@ -1011,10 +967,7 @@
         <v>10.00116666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>22.53683333333333</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1152.021166666667</v>
+        <v>738.2608333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1049,10 +1002,7 @@
         <v>7.879</v>
       </c>
       <c r="I16" t="n">
-        <v>23.8555</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1012.2305</v>
+        <v>637.8018333333333</v>
       </c>
     </row>
     <row r="17">
@@ -1087,10 +1037,7 @@
         <v>8.07</v>
       </c>
       <c r="I17" t="n">
-        <v>20.28466666666667</v>
-      </c>
-      <c r="J17" t="n">
-        <v>934.4475555555556</v>
+        <v>616.0226666666666</v>
       </c>
     </row>
     <row r="18">
@@ -1125,10 +1072,7 @@
         <v>6.962666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="J18" t="n">
-        <v>707.6145</v>
+        <v>456.5573333333334</v>
       </c>
     </row>
     <row r="19">
@@ -1163,10 +1107,7 @@
         <v>13.40466666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>27.402</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1477.728666666667</v>
+        <v>948.504</v>
       </c>
     </row>
     <row r="20">
@@ -1201,10 +1142,7 @@
         <v>13.76783333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>31.84833333333333</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1655.175</v>
+        <v>1042.0275</v>
       </c>
     </row>
     <row r="21">
@@ -1239,10 +1177,7 @@
         <v>13.89583333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>28.35433333333333</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1584.3575</v>
+        <v>1008.546666666667</v>
       </c>
     </row>
     <row r="22">
@@ -1277,10 +1212,7 @@
         <v>15.73933333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>30.33866666666666</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1901.901333333333</v>
+        <v>1207.746666666667</v>
       </c>
     </row>
     <row r="23">
@@ -1315,10 +1247,7 @@
         <v>14.38</v>
       </c>
       <c r="I23" t="n">
-        <v>31.94933333333333</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1806.83</v>
+        <v>1135.126</v>
       </c>
     </row>
     <row r="24">
@@ -1353,10 +1282,7 @@
         <v>11.28</v>
       </c>
       <c r="I24" t="n">
-        <v>29.66333333333333</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1329.719333333333</v>
+        <v>861.9399999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1391,10 +1317,7 @@
         <v>12.24066666666667</v>
       </c>
       <c r="I25" t="n">
-        <v>28.04533333333333</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1347.860666666667</v>
+        <v>844.3553333333333</v>
       </c>
     </row>
     <row r="26">
@@ -1429,10 +1352,7 @@
         <v>12.67116666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>25.7315</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1424.270666666667</v>
+        <v>891.9720000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1467,10 +1387,7 @@
         <v>13.03333333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>26.87733333333333</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1546.086</v>
+        <v>979.7453333333333</v>
       </c>
     </row>
     <row r="28">
@@ -1505,10 +1422,7 @@
         <v>11.35266666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>21.85533333333333</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1235.477333333333</v>
+        <v>765.9913333333334</v>
       </c>
     </row>
     <row r="29">
@@ -1543,10 +1457,7 @@
         <v>13.255</v>
       </c>
       <c r="I29" t="n">
-        <v>30.94766666666666</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1593.982</v>
+        <v>1008.737333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1581,10 +1492,7 @@
         <v>11.71933333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>27.99666666666667</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1418.318666666667</v>
+        <v>888.8993333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1619,10 +1527,7 @@
         <v>12.76416666666667</v>
       </c>
       <c r="I31" t="n">
-        <v>28.27516666666666</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1449.993833333333</v>
+        <v>897.4053333333333</v>
       </c>
     </row>
     <row r="32">
@@ -1657,10 +1562,7 @@
         <v>13.138</v>
       </c>
       <c r="I32" t="n">
-        <v>26.49916666666667</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1459.802</v>
+        <v>937.4459999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1695,10 +1597,7 @@
         <v>12.20238888888889</v>
       </c>
       <c r="I33" t="n">
-        <v>27.27483333333333</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1398.380833333333</v>
+        <v>909.9792777777778</v>
       </c>
     </row>
     <row r="34">
@@ -1733,10 +1632,7 @@
         <v>11.90033333333333</v>
       </c>
       <c r="I34" t="n">
-        <v>26.95216666666667</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1323.771666666667</v>
+        <v>852.9985</v>
       </c>
     </row>
     <row r="35">
@@ -1771,10 +1667,7 @@
         <v>8.962666666666665</v>
       </c>
       <c r="I35" t="n">
-        <v>17.938</v>
-      </c>
-      <c r="J35" t="n">
-        <v>960.9673333333334</v>
+        <v>602.7206666666667</v>
       </c>
     </row>
     <row r="36">
@@ -1809,10 +1702,7 @@
         <v>32.15866666666667</v>
       </c>
       <c r="I36" t="n">
-        <v>38.096</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4508.56</v>
+        <v>2927.711333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1847,10 +1737,7 @@
         <v>27.82</v>
       </c>
       <c r="I37" t="n">
-        <v>33.18666666666667</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3547.028</v>
+        <v>2366.594666666666</v>
       </c>
     </row>
     <row r="38">
@@ -1885,10 +1772,7 @@
         <v>26.85816666666667</v>
       </c>
       <c r="I38" t="n">
-        <v>33.30133333333333</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3829.134166666667</v>
+        <v>2506.958166666667</v>
       </c>
     </row>
     <row r="39">
@@ -1923,10 +1807,7 @@
         <v>27.27483333333333</v>
       </c>
       <c r="I39" t="n">
-        <v>33.35366666666667</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3812.379666666666</v>
+        <v>2445.3675</v>
       </c>
     </row>
     <row r="40">
@@ -1961,10 +1842,7 @@
         <v>29.998</v>
       </c>
       <c r="I40" t="n">
-        <v>36.66933333333333</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3992.999333333333</v>
+        <v>2648.543333333334</v>
       </c>
     </row>
     <row r="41">
@@ -1999,10 +1877,7 @@
         <v>30.19916666666667</v>
       </c>
       <c r="I41" t="n">
-        <v>40.739</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4398.954666666667</v>
+        <v>2828.109666666667</v>
       </c>
     </row>
     <row r="42">
@@ -2037,10 +1912,7 @@
         <v>21.11383333333334</v>
       </c>
       <c r="I42" t="n">
-        <v>35.7765</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2876.293666666667</v>
+        <v>1923.6505</v>
       </c>
     </row>
     <row r="43">
@@ -2075,10 +1947,7 @@
         <v>22.2685</v>
       </c>
       <c r="I43" t="n">
-        <v>28.74866666666667</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2832.712333333333</v>
+        <v>1865.1955</v>
       </c>
     </row>
     <row r="44">
@@ -2113,10 +1982,7 @@
         <v>23.18866666666667</v>
       </c>
       <c r="I44" t="n">
-        <v>30.72933333333333</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3030.095333333333</v>
+        <v>1933.141333333333</v>
       </c>
     </row>
     <row r="45">
@@ -2151,10 +2017,7 @@
         <v>24.18333333333334</v>
       </c>
       <c r="I45" t="n">
-        <v>384803.8405</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3464.701</v>
+        <v>2266.419333333333</v>
       </c>
     </row>
     <row r="46">
@@ -2189,10 +2052,7 @@
         <v>24.70666666666667</v>
       </c>
       <c r="I46" t="n">
-        <v>29.77888888888889</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3038.667777777777</v>
+        <v>1948.153333333333</v>
       </c>
     </row>
     <row r="47">
@@ -2227,10 +2087,7 @@
         <v>22.73</v>
       </c>
       <c r="I47" t="n">
-        <v>32.72733333333333</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3116.744666666667</v>
+        <v>2016.504666666667</v>
       </c>
     </row>
     <row r="48">
@@ -2265,10 +2122,7 @@
         <v>24.582</v>
       </c>
       <c r="I48" t="n">
-        <v>28.852</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3251.739333333333</v>
+        <v>2139.650666666667</v>
       </c>
     </row>
     <row r="49">
@@ -2303,10 +2157,7 @@
         <v>24.99883333333333</v>
       </c>
       <c r="I49" t="n">
-        <v>29.11966666666667</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3239.158</v>
+        <v>2185.616</v>
       </c>
     </row>
     <row r="50">
@@ -2341,10 +2192,7 @@
         <v>25.96116666666667</v>
       </c>
       <c r="I50" t="n">
-        <v>54.661</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3678.359166666667</v>
+        <v>2341.528666666667</v>
       </c>
     </row>
     <row r="51">
@@ -2379,10 +2227,7 @@
         <v>24.90333333333334</v>
       </c>
       <c r="I51" t="n">
-        <v>35.88833333333334</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3602.333333333333</v>
+        <v>2299.774166666667</v>
       </c>
     </row>
     <row r="52">
@@ -2417,10 +2262,7 @@
         <v>25.02</v>
       </c>
       <c r="I52" t="n">
-        <v>34.29377777777778</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3066.823555555555</v>
+        <v>2039.216</v>
       </c>
     </row>
     <row r="53">
@@ -2455,10 +2297,7 @@
         <v>29.48566666666666</v>
       </c>
       <c r="I53" t="n">
-        <v>43.57283333333334</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4021.4805</v>
+        <v>2621.910833333333</v>
       </c>
     </row>
     <row r="54">
@@ -2493,10 +2332,7 @@
         <v>28.20466666666667</v>
       </c>
       <c r="I54" t="n">
-        <v>45.40866666666667</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4080.211333333334</v>
+        <v>2568.531333333333</v>
       </c>
     </row>
     <row r="55">
@@ -2531,10 +2367,7 @@
         <v>28.45111111111111</v>
       </c>
       <c r="I55" t="n">
-        <v>35.95533333333334</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3792.348666666667</v>
+        <v>2443.043777777777</v>
       </c>
     </row>
     <row r="56">
@@ -2569,10 +2402,7 @@
         <v>30.23466666666667</v>
       </c>
       <c r="I56" t="n">
-        <v>39.82266666666667</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4011.505333333333</v>
+        <v>2570.306666666667</v>
       </c>
     </row>
     <row r="57">
@@ -2607,10 +2437,7 @@
         <v>27.91066666666667</v>
       </c>
       <c r="I57" t="n">
-        <v>44.62933333333334</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3994.671166666667</v>
+        <v>2530.8285</v>
       </c>
     </row>
     <row r="58">
@@ -2645,10 +2472,7 @@
         <v>29.66666666666667</v>
       </c>
       <c r="I58" t="n">
-        <v>35.07666666666667</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3756.322</v>
+        <v>2417.060666666667</v>
       </c>
     </row>
     <row r="59">
@@ -2683,10 +2507,7 @@
         <v>27.06066666666667</v>
       </c>
       <c r="I59" t="n">
-        <v>38.59466666666668</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3600.082</v>
+        <v>2359.029333333333</v>
       </c>
     </row>
     <row r="60">
@@ -2721,10 +2542,7 @@
         <v>26.88183333333333</v>
       </c>
       <c r="I60" t="n">
-        <v>40.236</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3756.286833333334</v>
+        <v>2433.855833333333</v>
       </c>
     </row>
     <row r="61">
@@ -2759,10 +2577,7 @@
         <v>27.54066666666667</v>
       </c>
       <c r="I61" t="n">
-        <v>39.79666666666667</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3683.640666666666</v>
+        <v>2375.186666666667</v>
       </c>
     </row>
     <row r="62">
@@ -2797,10 +2612,7 @@
         <v>27.74966666666667</v>
       </c>
       <c r="I62" t="n">
-        <v>36.66616666666667</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3581.606666666667</v>
+        <v>2336.651666666667</v>
       </c>
     </row>
     <row r="63">
@@ -2835,10 +2647,7 @@
         <v>26.75666666666666</v>
       </c>
       <c r="I63" t="n">
-        <v>39.37066666666666</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3621.497333333333</v>
+        <v>2363.155333333334</v>
       </c>
     </row>
     <row r="64">
@@ -2873,10 +2682,7 @@
         <v>26.63933333333334</v>
       </c>
       <c r="I64" t="n">
-        <v>36.25483333333333</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3457.795333333333</v>
+        <v>2252.344</v>
       </c>
     </row>
     <row r="65">
@@ -2911,10 +2717,7 @@
         <v>27.00866666666667</v>
       </c>
       <c r="I65" t="n">
-        <v>37.78533333333333</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3556.918</v>
+        <v>2358.852</v>
       </c>
     </row>
     <row r="66">
@@ -2949,10 +2752,7 @@
         <v>27.35233333333333</v>
       </c>
       <c r="I66" t="n">
-        <v>39.30583333333333</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3727.332666666667</v>
+        <v>2386.86</v>
       </c>
     </row>
     <row r="67">
@@ -2987,10 +2787,7 @@
         <v>27.34733333333334</v>
       </c>
       <c r="I67" t="n">
-        <v>40.12933333333334</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3707.355333333333</v>
+        <v>2408.533333333333</v>
       </c>
     </row>
     <row r="68">
@@ -3025,10 +2822,7 @@
         <v>26.3605</v>
       </c>
       <c r="I68" t="n">
-        <v>38.04983333333333</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3306.247833333333</v>
+        <v>2120.756833333333</v>
       </c>
     </row>
     <row r="69">
@@ -3063,10 +2857,7 @@
         <v>19.29366666666667</v>
       </c>
       <c r="I69" t="n">
-        <v>22.49733333333333</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1915.662833333333</v>
+        <v>1228.993</v>
       </c>
     </row>
     <row r="70">
@@ -3101,10 +2892,7 @@
         <v>23.02733333333333</v>
       </c>
       <c r="I70" t="n">
-        <v>35.82533333333333</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2893.214666666667</v>
+        <v>1951.667333333334</v>
       </c>
     </row>
     <row r="71">
@@ -3139,10 +2927,7 @@
         <v>18.859</v>
       </c>
       <c r="I71" t="n">
-        <v>31.16516666666666</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2346.368666666667</v>
+        <v>1521.343</v>
       </c>
     </row>
     <row r="72">
@@ -3177,10 +2962,7 @@
         <v>20.21533333333333</v>
       </c>
       <c r="I72" t="n">
-        <v>37.60044444444444</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2669.390888888889</v>
+        <v>1760.143555555556</v>
       </c>
     </row>
     <row r="73">
@@ -3215,10 +2997,7 @@
         <v>21.63233333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>35.24483333333333</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2787.589333333333</v>
+        <v>1856.033166666666</v>
       </c>
     </row>
     <row r="74">
@@ -3253,10 +3032,7 @@
         <v>19.03633333333334</v>
       </c>
       <c r="I74" t="n">
-        <v>29.41866666666667</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2173.453</v>
+        <v>1374.008</v>
       </c>
     </row>
     <row r="75">
@@ -3291,10 +3067,7 @@
         <v>22.37133333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>34.728</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2957.06</v>
+        <v>1947.190666666667</v>
       </c>
     </row>
     <row r="76">
@@ -3329,10 +3102,7 @@
         <v>19.342</v>
       </c>
       <c r="I76" t="n">
-        <v>33.02933333333333</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2414.722</v>
+        <v>1591.099333333334</v>
       </c>
     </row>
     <row r="77">
@@ -3367,10 +3137,7 @@
         <v>18.119</v>
       </c>
       <c r="I77" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2123.689833333333</v>
+        <v>1419.972666666667</v>
       </c>
     </row>
     <row r="78">
@@ -3405,10 +3172,7 @@
         <v>19.4455</v>
       </c>
       <c r="I78" t="n">
-        <v>35.30633333333333</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2508.3215</v>
+        <v>1665.420666666667</v>
       </c>
     </row>
     <row r="79">
@@ -3443,10 +3207,7 @@
         <v>16.948</v>
       </c>
       <c r="I79" t="n">
-        <v>34.88916666666667</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2149.539666666667</v>
+        <v>1421.790166666666</v>
       </c>
     </row>
     <row r="80">
@@ -3481,10 +3242,7 @@
         <v>18.56966666666667</v>
       </c>
       <c r="I80" t="n">
-        <v>32.022</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2194.6015</v>
+        <v>1430.344333333333</v>
       </c>
     </row>
     <row r="81">
@@ -3519,10 +3277,7 @@
         <v>21.5005</v>
       </c>
       <c r="I81" t="n">
-        <v>34.39566666666667</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2779.012666666667</v>
+        <v>1842.612666666667</v>
       </c>
     </row>
     <row r="82">
@@ -3557,10 +3312,7 @@
         <v>18.08533333333333</v>
       </c>
       <c r="I82" t="n">
-        <v>32.50266666666667</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2151.464</v>
+        <v>1442.554666666667</v>
       </c>
     </row>
     <row r="83">
@@ -3595,10 +3347,7 @@
         <v>19.2595</v>
       </c>
       <c r="I83" t="n">
-        <v>-126788.3926666667</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2282.429</v>
+        <v>1507.995166666667</v>
       </c>
     </row>
     <row r="84">
@@ -3633,10 +3382,7 @@
         <v>20.18133333333333</v>
       </c>
       <c r="I84" t="n">
-        <v>37.982</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2539.41</v>
+        <v>1615.191333333333</v>
       </c>
     </row>
     <row r="85">
@@ -3671,10 +3417,7 @@
         <v>17.75133333333333</v>
       </c>
       <c r="I85" t="n">
-        <v>30.32666666666667</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2030.336666666667</v>
+        <v>1377.962666666667</v>
       </c>
     </row>
     <row r="86">
@@ -3709,10 +3452,7 @@
         <v>13.44816666666667</v>
       </c>
       <c r="I86" t="n">
-        <v>23.0555</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1533.356333333333</v>
+        <v>961.2508333333335</v>
       </c>
     </row>
     <row r="87">
@@ -3747,10 +3487,7 @@
         <v>15.73133333333333</v>
       </c>
       <c r="I87" t="n">
-        <v>28.21533333333333</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1850.263333333333</v>
+        <v>1171.685333333333</v>
       </c>
     </row>
     <row r="88">
@@ -3785,10 +3522,7 @@
         <v>14.358</v>
       </c>
       <c r="I88" t="n">
-        <v>28.65866666666667</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1694.862</v>
+        <v>1060.551333333333</v>
       </c>
     </row>
     <row r="89">
@@ -3823,10 +3557,7 @@
         <v>16.08</v>
       </c>
       <c r="I89" t="n">
-        <v>31.91533333333333</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1943.288666666667</v>
+        <v>1236.609333333333</v>
       </c>
     </row>
     <row r="90">
@@ -3861,10 +3592,7 @@
         <v>15.5335</v>
       </c>
       <c r="I90" t="n">
-        <v>33.77083333333334</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1957.886</v>
+        <v>1244.894666666667</v>
       </c>
     </row>
     <row r="91">
@@ -3899,10 +3627,7 @@
         <v>14.89933333333333</v>
       </c>
       <c r="I91" t="n">
-        <v>28.08933333333333</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1640.806666666667</v>
+        <v>1031.518</v>
       </c>
     </row>
     <row r="92">
@@ -3937,10 +3662,7 @@
         <v>15.09666666666667</v>
       </c>
       <c r="I92" t="n">
-        <v>29.58033333333333</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1841.982166666666</v>
+        <v>1143.317</v>
       </c>
     </row>
     <row r="93">
@@ -3975,10 +3697,7 @@
         <v>13.998</v>
       </c>
       <c r="I93" t="n">
-        <v>27.10666666666667</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1532.440666666667</v>
+        <v>991.814</v>
       </c>
     </row>
     <row r="94">
@@ -4013,10 +3732,7 @@
         <v>13.62466666666667</v>
       </c>
       <c r="I94" t="n">
-        <v>28.04933333333333</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1604.393333333333</v>
+        <v>993.7466666666668</v>
       </c>
     </row>
     <row r="95">
@@ -4051,10 +3767,7 @@
         <v>13.618</v>
       </c>
       <c r="I95" t="n">
-        <v>25.38733333333333</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1448.080666666667</v>
+        <v>917.7053333333333</v>
       </c>
     </row>
     <row r="96">
@@ -4089,10 +3802,7 @@
         <v>14.454</v>
       </c>
       <c r="I96" t="n">
-        <v>33.21333333333333</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1936.22</v>
+        <v>1209.608666666667</v>
       </c>
     </row>
     <row r="97">
@@ -4127,10 +3837,7 @@
         <v>13.41666666666667</v>
       </c>
       <c r="I97" t="n">
-        <v>28.31244444444445</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1662.597111111111</v>
+        <v>1027.080444444445</v>
       </c>
     </row>
     <row r="98">
@@ -4165,10 +3872,7 @@
         <v>15.07883333333333</v>
       </c>
       <c r="I98" t="n">
-        <v>30.38666666666667</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1662.511666666667</v>
+        <v>1060.859166666667</v>
       </c>
     </row>
     <row r="99">
@@ -4203,10 +3907,7 @@
         <v>13.61166666666667</v>
       </c>
       <c r="I99" t="n">
-        <v>27.5075</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1510.1865</v>
+        <v>943.8946666666667</v>
       </c>
     </row>
     <row r="100">
@@ -4241,10 +3942,7 @@
         <v>13.62983333333333</v>
       </c>
       <c r="I100" t="n">
-        <v>24.61733333333333</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1417.9485</v>
+        <v>907.2975</v>
       </c>
     </row>
     <row r="101">
@@ -4279,10 +3977,7 @@
         <v>12.66733333333333</v>
       </c>
       <c r="I101" t="n">
-        <v>24.48183333333333</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1358.7865</v>
+        <v>840.1336666666666</v>
       </c>
     </row>
     <row r="102">
@@ -4317,10 +4012,7 @@
         <v>13.48133333333333</v>
       </c>
       <c r="I102" t="n">
-        <v>25.642</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1516.314</v>
+        <v>946.6726666666667</v>
       </c>
     </row>
     <row r="103">
@@ -4355,10 +4047,7 @@
         <v>9.628666666666668</v>
       </c>
       <c r="I103" t="n">
-        <v>18.11983333333333</v>
-      </c>
-      <c r="J103" t="n">
-        <v>937.2171666666668</v>
+        <v>630.9046666666667</v>
       </c>
     </row>
   </sheetData>
